--- a/cotacoes_betano.xlsx
+++ b/cotacoes_betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I174"/>
+  <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,27 +481,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29717722</t>
+          <t>29988202</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Guadalupe FC</t>
+          <t>San Lorenzo de Alem</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FC Puntarenas</t>
+          <t>San Antonio Belen</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Guadalupe_X_FCPuntare#2.5</t>
+          <t>SanLorenz_X_SanAntoni#2.5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>17/11/2022 22:00</t>
+          <t>27/11/2022 17:30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -510,11 +510,11 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/odds/guadalupe-fc-fc-puntarenas/29717722/</t>
+          <t>/odds/san-lorenzo-de-alem-san-antonio-belen/29988202/</t>
         </is>
       </c>
     </row>
@@ -524,27 +524,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29717722</t>
+          <t>29988202</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Guadalupe FC</t>
+          <t>San Lorenzo de Alem</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FC Puntarenas</t>
+          <t>San Antonio Belen</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Guadalupe_X_FCPuntare#ambas</t>
+          <t>SanLorenz_X_SanAntoni#ambas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17/11/2022 22:00</t>
+          <t>27/11/2022 17:30</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -553,11 +553,11 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.78</v>
+        <v>2.35</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>/odds/guadalupe-fc-fc-puntarenas/29717722/</t>
+          <t>/odds/san-lorenzo-de-alem-san-antonio-belen/29988202/</t>
         </is>
       </c>
     </row>
@@ -567,27 +567,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29638026</t>
+          <t>29988203</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Sportivo Biblioteca Atenas</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wuhan FC</t>
+          <t>Alumni Villa María</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SuzhouDon_X_WuhanFC#2.5</t>
+          <t>SportivoB_X_AlumniVil#2.5</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18/11/2022 02:00</t>
+          <t>27/11/2022 17:30</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -596,11 +596,11 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>/odds/suzhou-dongwu-wuhan-fc/29638026/</t>
+          <t>/odds/sportivo-biblioteca-atenas-alumni-villa-maria/29988203/</t>
         </is>
       </c>
     </row>
@@ -610,27 +610,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29638026</t>
+          <t>29988203</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Suzhou Dongwu</t>
+          <t>Sportivo Biblioteca Atenas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Wuhan FC</t>
+          <t>Alumni Villa María</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SuzhouDon_X_WuhanFC#ambas</t>
+          <t>SportivoB_X_AlumniVil#ambas</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18/11/2022 02:00</t>
+          <t>27/11/2022 17:30</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -639,11 +639,11 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.65</v>
+        <v>2.22</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>/odds/suzhou-dongwu-wuhan-fc/29638026/</t>
+          <t>/odds/sportivo-biblioteca-atenas-alumni-villa-maria/29988203/</t>
         </is>
       </c>
     </row>
@@ -653,40 +653,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29638105</t>
+          <t>29959450</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nanjing City</t>
+          <t>9 de Julio Rafaela</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Shanghai Port</t>
+          <t>Nautico El Quilla</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>NanjingCi_X_ShanghaiP#ambas</t>
+          <t>9deJulio_X_NauticoEl#2.5</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18/11/2022 02:00</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>/odds/nanjing-city-shanghai-port/29638105/</t>
+          <t>/odds/9-de-julio-rafaela-nautico-el-quilla/29959450/</t>
         </is>
       </c>
     </row>
@@ -696,40 +696,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29711455</t>
+          <t>29959450</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>City FC</t>
+          <t>9 de Julio Rafaela</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>United Bharat FC</t>
+          <t>Nautico El Quilla</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CityFC_X_UnitedBha#2.5</t>
+          <t>9deJulio_X_NauticoEl#ambas</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>18/11/2022 02:15</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.47</v>
+        <v>1.98</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>/odds/city-fc-united-bharat-fc/29711455/</t>
+          <t>/odds/9-de-julio-rafaela-nautico-el-quilla/29959450/</t>
         </is>
       </c>
     </row>
@@ -739,40 +739,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29711455</t>
+          <t>29959451</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>City FC</t>
+          <t>CS Deportivo La Emilia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>United Bharat FC</t>
+          <t>Defensores La Esperanza</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CityFC_X_UnitedBha#ambas</t>
+          <t>CSDeporti_X_Defensores#2.5</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>18/11/2022 02:15</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>/odds/city-fc-united-bharat-fc/29711455/</t>
+          <t>/odds/cs-deportivo-la-emilia-defensores-la-esperanza/29959451/</t>
         </is>
       </c>
     </row>
@@ -782,40 +782,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29638137</t>
+          <t>29959451</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Dalian Professional</t>
+          <t>CS Deportivo La Emilia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Defensores La Esperanza</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>DalianPro_X_ZhejiangP#2.5</t>
+          <t>CSDeporti_X_Defensores#ambas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>18/11/2022 03:30</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>/odds/dalian-professional-zhejiang-professional/29638137/</t>
+          <t>/odds/cs-deportivo-la-emilia-defensores-la-esperanza/29959451/</t>
         </is>
       </c>
     </row>
@@ -825,40 +825,40 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29638137</t>
+          <t>29987311</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dalian Professional</t>
+          <t>Racing Club de Eduardo Castex</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Zhejiang Professional</t>
+          <t>Deportivo Mac Allister</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>DalianPro_X_ZhejiangP#ambas</t>
+          <t>RacingClu_X_Deportivo#2.5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>18/11/2022 03:30</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>/odds/dalian-professional-zhejiang-professional/29638137/</t>
+          <t>/odds/racing-club-de-eduardo-castex-deportivo-mac-allister/29987311/</t>
         </is>
       </c>
     </row>
@@ -868,40 +868,40 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29738305</t>
+          <t>29987311</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>AC FAF Sub-19</t>
+          <t>Racing Club de Eduardo Castex</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>JS Saoura Sub-19</t>
+          <t>Deportivo Mac Allister</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>ACFAFSub_X_JSSaoura#2.5</t>
+          <t>RacingClu_X_Deportivo#ambas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>18/11/2022 04:00</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>/odds/ac-faf-sub-19-js-saoura-sub-19/29738305/</t>
+          <t>/odds/racing-club-de-eduardo-castex-deportivo-mac-allister/29987311/</t>
         </is>
       </c>
     </row>
@@ -911,27 +911,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29738358</t>
+          <t>29848108</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>MO Constantine Sub-19</t>
+          <t>CD Cobreloa Calama</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CA Batna Sub-19</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>MOConstan_X_CABatnaS#2.5</t>
+          <t>CDCobrelo_X_DeportesC#2.5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>18/11/2022 04:00</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -940,11 +940,11 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.72</v>
+        <v>2.15</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>/odds/mo-constantine-sub-19-ca-batna-sub-19/29738358/</t>
+          <t>/odds/cd-cobreloa-calama-deportes-copiapo/29848108/</t>
         </is>
       </c>
     </row>
@@ -954,40 +954,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29738360</t>
+          <t>29848108</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>WA Boufarik Sub-19</t>
+          <t>CD Cobreloa Calama</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>RC Kouba Sub-19</t>
+          <t>Deportes Copiapo</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>WABoufari_X_RCKoubaS#2.5</t>
+          <t>CDCobrelo_X_DeportesC#ambas</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>18/11/2022 04:00</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.65</v>
+        <v>1.9</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>/odds/wa-boufarik-sub-19-rc-kouba-sub-19/29738360/</t>
+          <t>/odds/cd-cobreloa-calama-deportes-copiapo/29848108/</t>
         </is>
       </c>
     </row>
@@ -997,27 +997,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29741592</t>
+          <t>29989140</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IB Khemis El khechna Sub-19</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Olympique de Medea Sub-19</t>
+          <t>Indigenas de Matagalpa</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>IBKhemis_X_Olympique#2.5</t>
+          <t>Managua_X_Indigenas#2.5</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>18/11/2022 04:00</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1026,11 +1026,11 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>/odds/ib-khemis-el-khechna-sub-19-olympique-de-medea-sub-19/29741592/</t>
+          <t>/odds/managua-indigenas-de-matagalpa/29989140/</t>
         </is>
       </c>
     </row>
@@ -1040,40 +1040,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29738676</t>
+          <t>29989140</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Cong An Nhan Dan Sub-21</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ha Noi TT Sub-21</t>
+          <t>Indigenas de Matagalpa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CongAnNh_X_HaNoiTT#2.5</t>
+          <t>Managua_X_Indigenas#ambas</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>18/11/2022 04:00</t>
+          <t>27/11/2022 18:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.53</v>
+        <v>2.07</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>/odds/cong-an-nhan-dan-sub-21-ha-noi-tt-sub-21/29738676/</t>
+          <t>/odds/managua-indigenas-de-matagalpa/29989140/</t>
         </is>
       </c>
     </row>
@@ -1083,27 +1083,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>29685838</t>
+          <t>29987319</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>Club Atlético Uruguay</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Gokulam Kerala</t>
+          <t>San Lorenzo Villa Adela</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>AizawlFC_X_GokulamKe#2.5</t>
+          <t>ClubAtlet_X_SanLorenz#2.5</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>18/11/2022 04:30</t>
+          <t>27/11/2022 18:30</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1112,11 +1112,11 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>/odds/aizawl-fc-gokulam-kerala/29685838/</t>
+          <t>/odds/club-atletico-uruguay-san-lorenzo-villa-adela/29987319/</t>
         </is>
       </c>
     </row>
@@ -1126,27 +1126,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>29685838</t>
+          <t>29987319</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>Club Atlético Uruguay</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gokulam Kerala</t>
+          <t>San Lorenzo Villa Adela</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>AizawlFC_X_GokulamKe#ambas</t>
+          <t>ClubAtlet_X_SanLorenz#ambas</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>18/11/2022 04:30</t>
+          <t>27/11/2022 18:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1155,11 +1155,11 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>/odds/aizawl-fc-gokulam-kerala/29685838/</t>
+          <t>/odds/club-atletico-uruguay-san-lorenzo-villa-adela/29987319/</t>
         </is>
       </c>
     </row>
@@ -1169,27 +1169,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>29738361</t>
+          <t>29994314</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Khetri Iril Mapal Youth Club</t>
+          <t>CA Sarmiento Leones</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Dimapur Road Athletic Organisation</t>
+          <t>CD Municipal de Adelia Maria</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KhetriIri_X_DimapurRo#2.5</t>
+          <t>CASarmien_X_CDMunicip#2.5</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>18/11/2022 04:50</t>
+          <t>27/11/2022 18:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1198,11 +1198,11 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>/odds/khetri-iril-mapal-youth-club-dimapur-road-athletic-organisation/29738361/</t>
+          <t>/odds/ca-sarmiento-leones-cd-municipal-de-adelia-maria/29994314/</t>
         </is>
       </c>
     </row>
@@ -1212,27 +1212,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29636779</t>
+          <t>29959418</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Sportivo Baradero</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Panamá</t>
+          <t>Regatas de San Nicolas</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Camaroes_X_Panama#2.5</t>
+          <t>SportivoB_X_Regatasde#2.5</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>18/11/2022 06:00</t>
+          <t>27/11/2022 19:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1241,11 +1241,11 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>/odds/camaroes-panama/29636779/</t>
+          <t>/odds/sportivo-baradero-regatas-de-san-nicolas/29959418/</t>
         </is>
       </c>
     </row>
@@ -1255,27 +1255,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29636779</t>
+          <t>29959418</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Sportivo Baradero</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Panamá</t>
+          <t>Regatas de San Nicolas</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Camaroes_X_Panama#ambas</t>
+          <t>SportivoB_X_Regatasde#ambas</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>18/11/2022 06:00</t>
+          <t>27/11/2022 19:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1284,11 +1284,11 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>/odds/camaroes-panama/29636779/</t>
+          <t>/odds/sportivo-baradero-regatas-de-san-nicolas/29959418/</t>
         </is>
       </c>
     </row>
@@ -1298,27 +1298,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29738378</t>
+          <t>29987362</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Estônia Sub-19</t>
+          <t>Club Atletico el Linqueno</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Eslováquia Sub-19</t>
+          <t>Sportivo Barracas</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>EstoniaSu_X_Eslovaquia#2.5</t>
+          <t>ClubAtlet_X_SportivoB#2.5</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>18/11/2022 06:00</t>
+          <t>27/11/2022 19:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1327,11 +1327,11 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>/odds/estonia-sub-19-eslovaquia-sub-19/29738378/</t>
+          <t>/odds/club-atletico-el-linqueno-sportivo-barracas/29987362/</t>
         </is>
       </c>
     </row>
@@ -1341,27 +1341,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>29738378</t>
+          <t>29987362</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Estônia Sub-19</t>
+          <t>Club Atletico el Linqueno</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Eslováquia Sub-19</t>
+          <t>Sportivo Barracas</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>EstoniaSu_X_Eslovaquia#ambas</t>
+          <t>ClubAtlet_X_SportivoB#ambas</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>18/11/2022 06:00</t>
+          <t>27/11/2022 19:00</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1370,11 +1370,11 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>/odds/estonia-sub-19-eslovaquia-sub-19/29738378/</t>
+          <t>/odds/club-atletico-el-linqueno-sportivo-barracas/29987362/</t>
         </is>
       </c>
     </row>
@@ -1384,27 +1384,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29745786</t>
+          <t>29552957</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TSV Hartberg</t>
+          <t>Millonarios FC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Atlético Junior</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TSVHartbe_X_Floridsdor#2.5</t>
+          <t>Millonario_X_AtleticoJ#2.5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>18/11/2022 06:00</t>
+          <t>27/11/2022 19:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1413,11 +1413,11 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>/odds/tsv-hartberg-floridsdorfer-ac/29745786/</t>
+          <t>/odds/millonarios-fc-atletico-junior/29552957/</t>
         </is>
       </c>
     </row>
@@ -1427,27 +1427,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>29745786</t>
+          <t>29552957</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TSV Hartberg</t>
+          <t>Millonarios FC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Floridsdorfer AC</t>
+          <t>Atlético Junior</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TSVHartbe_X_Floridsdor#ambas</t>
+          <t>Millonario_X_AtleticoJ#ambas</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>18/11/2022 06:00</t>
+          <t>27/11/2022 19:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1456,11 +1456,11 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.45</v>
+        <v>2.35</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>/odds/tsv-hartberg-floridsdorfer-ac/29745786/</t>
+          <t>/odds/millonarios-fc-atletico-junior/29552957/</t>
         </is>
       </c>
     </row>
@@ -1468,472 +1468,502 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>29987363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Juventud De Pergamino</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Villa Belgrano</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>JuventudD_X_VillaBelg#2.5</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>27/11/2022 19:30</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Gols+2.5</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>/odds/juventud-de-pergamino-villa-belgrano/29987363/</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29741558</t>
+          <t>29987363</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cracovia Kraków</t>
+          <t>Juventud De Pergamino</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FK Zeleziarne Podbrezova</t>
+          <t>Villa Belgrano</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>CracoviaK_X_FKZelezia#2.5</t>
+          <t>JuventudD_X_VillaBelg#ambas</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>18/11/2022 06:30</t>
+          <t>27/11/2022 19:30</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>/odds/cracovia-krakow-fk-zeleziarne-podbrezova/29741558/</t>
+          <t>/odds/juventud-de-pergamino-villa-belgrano/29987363/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29741558</t>
+          <t>29992488</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Cracovia Kraków</t>
+          <t>UNAN Managua</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FK Zeleziarne Podbrezova</t>
+          <t>Real Esteli</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>CracoviaK_X_FKZelezia#ambas</t>
+          <t>UNANManag_X_RealEstel#2.5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>18/11/2022 06:30</t>
+          <t>27/11/2022 21:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>/odds/cracovia-krakow-fk-zeleziarne-podbrezova/29741558/</t>
+          <t>/odds/unan-managua-real-esteli/29992488/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29602068</t>
+          <t>29992488</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Shams Azar</t>
+          <t>UNAN Managua</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Chooka Talesh</t>
+          <t>Real Esteli</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>ShamsAzar_X_ChookaTal#2.5</t>
+          <t>UNANManag_X_RealEstel#ambas</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>27/11/2022 21:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>/odds/shams-azar-chooka-talesh/29602068/</t>
+          <t>/odds/unan-managua-real-esteli/29992488/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>29602068</t>
+          <t>29552956</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Shams Azar</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Chooka Talesh</t>
+          <t>Independiente Santa Fe</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>ShamsAzar_X_ChookaTal#ambas</t>
+          <t>Deportivo_X_Independie#2.5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>27/11/2022 21:05</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>3.3</v>
+        <v>1.83</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>/odds/shams-azar-chooka-talesh/29602068/</t>
+          <t>/odds/deportivo-pereira-independiente-santa-fe/29552956/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29602106</t>
+          <t>29552956</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SaiPa Karaj FC</t>
+          <t>Deportivo Pereira</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Arman Gohar</t>
+          <t>Independiente Santa Fe</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SaiPaKara_X_ArmanGoha#2.5</t>
+          <t>Deportivo_X_Independie#ambas</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>27/11/2022 21:05</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>/odds/saipa-karaj-fc-arman-gohar/29602106/</t>
+          <t>/odds/deportivo-pereira-independiente-santa-fe/29552956/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29602106</t>
+          <t>29987456</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SaiPa Karaj FC</t>
+          <t>Shaanxi Changan</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Arman Gohar</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SaiPaKara_X_ArmanGoha#ambas</t>
+          <t>ShaanxiCh_X_NantongZh#2.5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>28/11/2022 02:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>/odds/saipa-karaj-fc-arman-gohar/29602106/</t>
+          <t>/odds/shaanxi-changan-nantong-zhiyun/29987456/</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>29602108</t>
+          <t>29987456</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mes Shahr-e Babak</t>
+          <t>Shaanxi Changan</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Khalij Fars Mahshahr</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MesShahr_X_KhalijFar#2.5</t>
+          <t>ShaanxiCh_X_NantongZh#ambas</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>28/11/2022 02:00</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>/odds/mes-shahr-e-babak-khalij-fars-mahshahr/29602108/</t>
+          <t>/odds/shaanxi-changan-nantong-zhiyun/29987456/</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29602108</t>
+          <t>29934930</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mes Shahr-e Babak</t>
+          <t>Real Kashmir FC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Khalij Fars Mahshahr</t>
+          <t>Churchill Brothers</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>MesShahr_X_KhalijFar#ambas</t>
+          <t>RealKashm_X_Churchill#2.5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>28/11/2022 04:30</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2.4</v>
+        <v>1.88</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>/odds/mes-shahr-e-babak-khalij-fars-mahshahr/29602108/</t>
+          <t>/odds/real-kashmir-fc-churchill-brothers/29934930/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29602112</t>
+          <t>29934930</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Fajr Sepasi FC</t>
+          <t>Real Kashmir FC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Shahrdari Hamedan</t>
+          <t>Churchill Brothers</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>FajrSepas_X_Shahrdari#2.5</t>
+          <t>RealKashm_X_Churchill#ambas</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>28/11/2022 04:30</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2.47</v>
+        <v>1.75</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>/odds/fajr-sepasi-fc-shahrdari-hamedan/29602112/</t>
+          <t>/odds/real-kashmir-fc-churchill-brothers/29934930/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>29602112</t>
+          <t>30016788</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fajr Sepasi FC</t>
+          <t>Ssu Singjamei</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Shahrdari Hamedan</t>
+          <t>Rising Athletic Union</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>FajrSepas_X_Shahrdari#ambas</t>
+          <t>SsuSingja_X_RisingAth#2.5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>28/11/2022 04:35</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>/odds/fajr-sepasi-fc-shahrdari-hamedan/29602112/</t>
+          <t>/odds/ssu-singjamei-rising-athletic-union/30016788/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>29602143</t>
+          <t>25861032</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Shahrdari Astara</t>
+          <t>Camarões</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Esteghlal Mollasani</t>
+          <t>Sérvia</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Shahrdari_X_Esteghlal#2.5</t>
+          <t>Camaroes_X_Servia#2.5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1942,41 +1972,41 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2.8</v>
+        <v>2.12</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>/odds/shahrdari-astara-esteghlal-mollasani/29602143/</t>
+          <t>/world-cup/odds/camaroes-servia/25861032/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>29602143</t>
+          <t>25861032</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Shahrdari Astara</t>
+          <t>Camarões</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Esteghlal Mollasani</t>
+          <t>Sérvia</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Shahrdari_X_Esteghlal#ambas</t>
+          <t>Camaroes_X_Servia#ambas</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>18/11/2022 06:45</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1985,41 +2015,41 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2.22</v>
+        <v>2.05</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>/odds/shahrdari-astara-esteghlal-mollasani/29602143/</t>
+          <t>/world-cup/odds/camaroes-servia/25861032/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>29714310</t>
+          <t>29479055</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Letônia Sub-21</t>
+          <t>Lernayin Artsakh FC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Estônia Sub-21</t>
+          <t>FC Van</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LetoniaSu_X_EstoniaSu#2.5</t>
+          <t>LernayinA_X_FCVan#2.5</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2028,170 +2058,140 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.93</v>
+        <v>2.27</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>/odds/letonia-sub-21-estonia-sub-21/29714310/</t>
+          <t>/odds/lernayin-artsakh-fc-fc-van/29479055/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29714310</t>
+          <t>29875712</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Letônia Sub-21</t>
+          <t>Shamakhi</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Estônia Sub-21</t>
+          <t>FK Kapaz</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>LetoniaSu_X_EstoniaSu#ambas</t>
+          <t>Shamakhi_X_FKKapaz#2.5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>/odds/letonia-sub-21-estonia-sub-21/29714310/</t>
+          <t>/odds/shamakhi-fk-kapaz/29875712/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29745810</t>
+          <t>29875712</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Termalica Bruk-Bet Nieciecza</t>
+          <t>Shamakhi</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>ZKS Stal Rzeszow</t>
+          <t>FK Kapaz</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Termalica_X_ZKSStalR#2.5</t>
+          <t>Shamakhi_X_FKKapaz#ambas</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>/odds/termalica-bruk-bet-nieciecza-zks-stal-rzeszow/29745810/</t>
+          <t>/odds/shamakhi-fk-kapaz/29875712/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>29745810</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Termalica Bruk-Bet Nieciecza</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ZKS Stal Rzeszow</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Termalica_X_ZKSStalR#ambas</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>18/11/2022 07:00</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>/odds/termalica-bruk-bet-nieciecza-zks-stal-rzeszow/29745810/</t>
-        </is>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>29685839</t>
+          <t>29444258</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Neroca FC</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sudeva Delhi FC</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>NerocaFC_X_SudevaDel#2.5</t>
+          <t>FCOleksan_X_RukhLviv#2.5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 07:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2200,41 +2200,41 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>/odds/neroca-fc-sudeva-delhi-fc/29685839/</t>
+          <t>/odds/fc-oleksandriya-rukh-lviv/29444258/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29685839</t>
+          <t>29444258</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Neroca FC</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sudeva Delhi FC</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>NerocaFC_X_SudevaDel#ambas</t>
+          <t>FCOleksan_X_RukhLviv#ambas</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 07:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2243,41 +2243,41 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>/odds/neroca-fc-sudeva-delhi-fc/29685839/</t>
+          <t>/odds/fc-oleksandriya-rukh-lviv/29444258/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>29602103</t>
+          <t>29987546</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Chadormalu</t>
+          <t>Fulham FC Sub-21</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Esteghlal_X_Chadormalu#2.5</t>
+          <t>HullCity_X_FulhamFC#2.5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 08:00</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2286,41 +2286,41 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2.8</v>
+        <v>1.44</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>/odds/esteghlal-khuzestan-chadormalu/29602103/</t>
+          <t>/odds/hull-city-sub-21-fulham-fc-sub-21/29987546/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>29602103</t>
+          <t>29987546</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Esteghlal Khuzestan</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Chadormalu</t>
+          <t>Fulham FC Sub-21</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Esteghlal_X_Chadormalu#ambas</t>
+          <t>HullCity_X_FulhamFC#ambas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 08:00</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2329,41 +2329,41 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2.85</v>
+        <v>1.62</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>/odds/esteghlal-khuzestan-chadormalu/29602103/</t>
+          <t>/odds/hull-city-sub-21-fulham-fc-sub-21/29987546/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>29602127</t>
+          <t>29444256</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Pars Jonoubi Jam</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Darya Babol</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>ParsJonou_X_DaryaBabo#2.5</t>
+          <t>KryvbasKr_X_SCDnipro#2.5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 08:00</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2372,41 +2372,41 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2.47</v>
+        <v>1.75</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>/odds/pars-jonoubi-jam-darya-babol/29602127/</t>
+          <t>/odds/kryvbas-kryvyi-rih-sc-dnipro-1/29444256/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>78</v>
+        <v>55</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>29602127</t>
+          <t>29444256</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Pars Jonoubi Jam</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Darya Babol</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>ParsJonou_X_DaryaBabo#ambas</t>
+          <t>KryvbasKr_X_SCDnipro#ambas</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 08:00</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2415,41 +2415,41 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2.22</v>
+        <v>1.78</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>/odds/pars-jonoubi-jam-darya-babol/29602127/</t>
+          <t>/odds/kryvbas-kryvyi-rih-sc-dnipro-1/29444256/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>29654282</t>
+          <t>25809856</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Samut Sakhon</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Nonthaburi United</t>
+          <t>Gana</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>SamutSakh_X_Nonthaburi#2.5</t>
+          <t>Coreiado_X_Gana#2.5</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2458,170 +2458,170 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.72</v>
+        <v>2.45</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>/odds/samut-sakhon-nonthaburi-united/29654282/</t>
+          <t>/world-cup/odds/coreia-do-sul-gana/25809856/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>29259771</t>
+          <t>25809856</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>FC Zorya Luhansk</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Gana</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>FCZoryaL_X_FCOleksan#2.5</t>
+          <t>Coreiado_X_Gana#ambas</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>/odds/fc-zorya-luhansk-fc-oleksandriya/29259771/</t>
+          <t>/world-cup/odds/coreia-do-sul-gana/25809856/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29259771</t>
+          <t>29987547</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>FC Zorya Luhansk</t>
+          <t>Bristol City Sub-21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Crystal Palace Sub-21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>FCZoryaL_X_FCOleksan#ambas</t>
+          <t>BristolCi_X_CrystalPa#2.5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>/odds/fc-zorya-luhansk-fc-oleksandriya/29259771/</t>
+          <t>/odds/bristol-city-sub-21-crystal-palace-sub-21/29987547/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>29631993</t>
+          <t>29987547</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Boma Young</t>
+          <t>Bristol City Sub-21</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Kaaro Karungi</t>
+          <t>Crystal Palace Sub-21</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BomaYoung_X_KaaroKaru#2.5</t>
+          <t>BristolCi_X_CrystalPa#ambas</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>18/11/2022 07:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>/odds/boma-young-kaaro-karungi/29631993/</t>
+          <t>/odds/bristol-city-sub-21-crystal-palace-sub-21/29987547/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29745006</t>
+          <t>29987602</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>Defence Force FC</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Wisla Cracóvia</t>
+          <t>Ethio Electric SC</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>StalMiele_X_WislaCrac#2.5</t>
+          <t>DefenceFo_X_EthioElec#2.5</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>18/11/2022 07:30</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2630,127 +2630,127 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>/odds/stal-mielec-wisla-cracovia/29745006/</t>
+          <t>/odds/defence-force-fc-ethio-electric-sc/29987602/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>29745006</t>
+          <t>29960692</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Stal Mielec</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Wisla Cracóvia</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>StalMiele_X_WislaCrac#ambas</t>
+          <t>OFIerapet_X_Proodeftik#2.5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>18/11/2022 07:30</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>/odds/stal-mielec-wisla-cracovia/29745006/</t>
+          <t>/odds/of-ierapetra-proodeftiki/29960692/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>29715609</t>
+          <t>29960692</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ACSO Filiasi</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>CSM Deva</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ACSOFilia_X_CSMDeva#2.5</t>
+          <t>OFIerapet_X_Proodeftik#ambas</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>18/11/2022 08:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>/odds/acso-filiasi-csm-deva/29715609/</t>
+          <t>/odds/of-ierapetra-proodeftiki/29960692/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>29715616</t>
+          <t>29960208</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>CSC Ghiroda si Giarmata VII</t>
+          <t>Al Jahra</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>CS Crisul Chisineu Cris</t>
+          <t>Al Sahel</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>CSCGhirod_X_CSCrisul#2.5</t>
+          <t>AlJahra_X_AlSahel#2.5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>18/11/2022 08:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2759,41 +2759,41 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>/odds/csc-ghiroda-si-giarmata-vii-cs-crisul-chisineu-cris/29715616/</t>
+          <t>/odds/al-jahra-al-sahel/29960208/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>29715640</t>
+          <t>30014571</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>CSM Unirea Alba Iulia</t>
+          <t>Al Nasar SC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ACS Targu Mures 1898</t>
+          <t>Al Tadamon</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>CSMUnirea_X_ACSTargu#2.5</t>
+          <t>AlNasarS_X_AlTadamon#2.5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>18/11/2022 08:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2802,41 +2802,41 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.65</v>
+        <v>1.98</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>/odds/csm-unirea-alba-iulia-acs-targu-mures-1898/29715640/</t>
+          <t>/odds/al-nasar-sc-al-tadamon/30014571/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>29715763</t>
+          <t>30014568</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Unirea Bascov</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>AS FC Pucioasa</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>UnireaBas_X_ASFCPuci#2.5</t>
+          <t>EstrelaAm_X_MafraSub#2.5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>18/11/2022 08:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2845,84 +2845,84 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>/odds/unirea-bascov-as-fc-pucioasa/29715763/</t>
+          <t>/odds/estrela-amadora-sub-23-mafra-sub-23/30014568/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>29738399</t>
+          <t>30014568</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Universitatea Craiova II</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Viitorul Daesti</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Universita_X_ViitorulD#2.5</t>
+          <t>EstrelaAm_X_MafraSub#ambas</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>18/11/2022 08:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>/odds/universitatea-craiova-ii-viitorul-daesti/29738399/</t>
+          <t>/odds/estrela-amadora-sub-23-mafra-sub-23/30014568/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>29738401</t>
+          <t>30014569</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>AFC Odorheiu Secuiesc</t>
+          <t>FC Famalicão Sub-23</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SR Municipal Brasov</t>
+          <t>Gil Vicente FC Sub-23</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>AFCOdorhe_X_SRMunicip#2.5</t>
+          <t>FCFamalic_X_GilVicent#2.5</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>18/11/2022 08:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2931,84 +2931,84 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>/odds/afc-odorheiu-secuiesc-sr-municipal-brasov/29738401/</t>
+          <t>/odds/fc-famalicao-sub-23-gil-vicente-fc-sub-23/30014569/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>29740038</t>
+          <t>30014569</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Metalurgistul Cugir</t>
+          <t>FC Famalicão Sub-23</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>CS Universitatea din Alba Iulia</t>
+          <t>Gil Vicente FC Sub-23</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Metalurgis_X_CSUnivers#2.5</t>
+          <t>FCFamalic_X_GilVicent#ambas</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>18/11/2022 08:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>/odds/metalurgistul-cugir-cs-universitatea-din-alba-iulia/29740038/</t>
+          <t>/odds/fc-famalicao-sub-23-gil-vicente-fc-sub-23/30014569/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29627470</t>
+          <t>29791814</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Bodrumspor Sub-19</t>
+          <t>Marines</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Altay SK Sub-19</t>
+          <t>AS Kigali</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bodrumspor_X_AltaySKS#2.5</t>
+          <t>Marines_X_ASKigali#2.5</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>18/11/2022 08:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3017,41 +3017,41 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1.6</v>
+        <v>2.27</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>/odds/bodrumspor-sub-19-altay-sk-sub-19/29627470/</t>
+          <t>/odds/marines-as-kigali/29791814/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>29747073</t>
+          <t>29313074</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Al Shabab Riyadh Sub-19</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Al Ittifaq Dammam Sub-19</t>
+          <t>Express FC</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>AlShabab_X_AlIttifaq#2.5</t>
+          <t>WakisoGia_X_ExpressFC#2.5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>18/11/2022 08:05</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3060,170 +3060,170 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1.53</v>
+        <v>2.07</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>/odds/al-shabab-riyadh-sub-19-al-ittifaq-dammam-sub-19/29747073/</t>
+          <t>/odds/wakiso-giants-express-fc/29313074/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>29522127</t>
+          <t>29313074</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>NK Kustosija</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>NK Solin</t>
+          <t>Express FC</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>NKKustosi_X_NKSolin#2.5</t>
+          <t>WakisoGia_X_ExpressFC#ambas</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>18/11/2022 08:30</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>/odds/nk-kustosija-nk-solin/29522127/</t>
+          <t>/odds/wakiso-giants-express-fc/29313074/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>29522127</t>
+          <t>29877443</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>NK Kustosija</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>NK Solin</t>
+          <t>Kallithea</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>NKKustosi_X_NKSolin#ambas</t>
+          <t>Kifisia_X_Kallithea#2.5</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>18/11/2022 08:30</t>
+          <t>28/11/2022 09:15</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1.75</v>
+        <v>2.65</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>/odds/nk-kustosija-nk-solin/29522127/</t>
+          <t>/odds/kifisia-kallithea/29877443/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>29711249</t>
+          <t>29877443</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>NK Medimurje Cakovec</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Opatija</t>
+          <t>Kallithea</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>NKMedimur_X_Opatija#2.5</t>
+          <t>Kifisia_X_Kallithea#ambas</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>18/11/2022 08:30</t>
+          <t>28/11/2022 09:15</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>/odds/nk-medimurje-cakovec-opatija/29711249/</t>
+          <t>/odds/kifisia-kallithea/29877443/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>29711250</t>
+          <t>29791878</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Zrinski Jurjevac</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Belisce</t>
+          <t>Crema 1908</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ZrinskiJu_X_Belisce#2.5</t>
+          <t>ASGianaE_X_Crema1908#2.5</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>18/11/2022 08:30</t>
+          <t>28/11/2022 09:30</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -3232,41 +3232,41 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>/odds/zrinski-jurjevac-belisce/29711250/</t>
+          <t>/odds/as-giana-erminio-crema-1908/29791878/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>29711281</t>
+          <t>29934931</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Al Nasr Taaden</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Asmant Asyut</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>AlNasrTa_X_AsmantAsy#2.5</t>
+          <t>Punjab_X_AizawlFC#2.5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>18/11/2022 08:30</t>
+          <t>28/11/2022 09:30</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3275,84 +3275,84 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>2.15</v>
+        <v>1.7</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>/odds/al-nasr-taaden-asmant-asyut/29711281/</t>
+          <t>/odds/punjab-aizawl-fc/29934931/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>29711315</t>
+          <t>29934931</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Al Shoban</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>El Madina El Monowara</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>AlShoban_X_ElMadina#2.5</t>
+          <t>Punjab_X_AizawlFC#ambas</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>18/11/2022 08:30</t>
+          <t>28/11/2022 09:30</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>2.32</v>
+        <v>1.65</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>/odds/al-shoban-el-madina-el-monowara/29711315/</t>
+          <t>/odds/punjab-aizawl-fc/29934931/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>29711317</t>
+          <t>29987548</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>ZED FC</t>
+          <t>Sheffield United Sub-21</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Porto Suez</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ZEDFC_X_PortoSuez#2.5</t>
+          <t>Sheffield_X_Newcastle#2.5</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>18/11/2022 08:30</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -3361,84 +3361,84 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>2.15</v>
+        <v>1.5</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>/odds/zed-fc-porto-suez/29711317/</t>
+          <t>/odds/sheffield-united-sub-21-newcastle-united-sub-21/29987548/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>29738586</t>
+          <t>29987548</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Telecom Egypt</t>
+          <t>Sheffield United Sub-21</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Al Nasr Cairo</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>TelecomEg_X_AlNasrCa#2.5</t>
+          <t>Sheffield_X_Newcastle#ambas</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>18/11/2022 08:30</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>2.07</v>
+        <v>1.47</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>/odds/telecom-egypt-al-nasr-cairo/29738586/</t>
+          <t>/odds/sheffield-united-sub-21-newcastle-united-sub-21/29987548/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>29745026</t>
+          <t>29875714</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Al Ahli Jeddah Sub-19</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Jeddah Club Sub-19</t>
+          <t>Zira FK</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>AlAhliJe_X_JeddahClu#2.5</t>
+          <t>QarabagFK_X_ZiraFK#2.5</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>18/11/2022 08:40</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3447,127 +3447,127 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>/odds/al-ahli-jeddah-sub-19-jeddah-club-sub-19/29745026/</t>
+          <t>/odds/qarabag-fk-zira-fk/29875714/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>164</v>
+        <v>123</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>29711271</t>
+          <t>29875714</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>República Tcheca Sub-19</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Dinamarca Sub-19</t>
+          <t>Zira FK</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Republica_X_Dinamarca#2.5</t>
+          <t>QarabagFK_X_ZiraFK#ambas</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1.52</v>
+        <v>1.98</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>/odds/republica-tcheca-sub-19-dinamarca-sub-19/29711271/</t>
+          <t>/odds/qarabag-fk-zira-fk/29875714/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>29711271</t>
+          <t>29987689</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>República Tcheca Sub-19</t>
+          <t>SL Benfica (F)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Dinamarca Sub-19</t>
+          <t>SC Braga (F)</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Republica_X_Dinamarca#ambas</t>
+          <t>SLBenfica_X_SCBraga(#2.5</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>/odds/republica-tcheca-sub-19-dinamarca-sub-19/29711271/</t>
+          <t>/odds/sl-benfica-f-sc-braga-f/29987689/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>28738086</t>
+          <t>29984463</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Borussia Monchengladbach II</t>
+          <t>ES Bafing</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>FC Schalke 04 II</t>
+          <t>Club Omnisports de Korhogo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>BorussiaM_X_FCSchalke#2.5</t>
+          <t>ESBafing_X_ClubOmnis#2.5</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 11:30</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3576,127 +3576,127 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>/odds/borussia-monchengladbach-ii-fc-schalke-04-ii/28738086/</t>
+          <t>/odds/es-bafing-club-omnisports-de-korhogo/29984463/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>172</v>
+        <v>132</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>28738086</t>
+          <t>25861035</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Borussia Monchengladbach II</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>FC Schalke 04 II</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>BorussiaM_X_FCSchalke#ambas</t>
+          <t>Brasil_X_Suica#2.5</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 12:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1.55</v>
+        <v>1.87</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>/odds/borussia-monchengladbach-ii-fc-schalke-04-ii/28738086/</t>
+          <t>/world-cup/odds/brasil-suica/25861035/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>175</v>
+        <v>134</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>29548245</t>
+          <t>25861035</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Etincelles</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Marines_X_Etincelles#2.5</t>
+          <t>Brasil_X_Suica#ambas</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 12:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>/odds/marines-etincelles/29548245/</t>
+          <t>/world-cup/odds/brasil-suica/25861035/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29574985</t>
+          <t>29987601</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Gorilla FC</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Bugesera</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>GorillaFC_X_Bugesera#2.5</t>
+          <t>Ethiopian_X_HawassaKe#2.5</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 12:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3705,41 +3705,41 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>2.35</v>
+        <v>1.72</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>/odds/gorilla-fc-bugesera/29574985/</t>
+          <t>/odds/ethiopian-medhin-hawassa-kenema/29987601/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>29049470</t>
+          <t>29446105</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Gaddafi FC</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>WakisoGia_X_GaddafiFC#2.5</t>
+          <t>Olympiakos_X_NeaSalami#2.5</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3748,41 +3748,41 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>/odds/wakiso-giants-gaddafi-fc/29049470/</t>
+          <t>/odds/olympiakos-nicosia-nea-salamina-famagusta/29446105/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>29049470</t>
+          <t>29446105</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Gaddafi FC</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>WakisoGia_X_GaddafiFC#ambas</t>
+          <t>Olympiakos_X_NeaSalami#ambas</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3791,41 +3791,41 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1.47</v>
+        <v>1.9</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>/odds/wakiso-giants-gaddafi-fc/29049470/</t>
+          <t>/odds/olympiakos-nicosia-nea-salamina-famagusta/29446105/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>29049471</t>
+          <t>29796896</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>UPDF FC</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Vipers_X_UPDFFC#2.5</t>
+          <t>ArisLimas_X_PafosFC#2.5</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3834,41 +3834,41 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1.72</v>
+        <v>2.18</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>/odds/vipers-updf-fc/29049471/</t>
+          <t>/odds/aris-limassol-pafos-fc/29796896/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>29049471</t>
+          <t>29796896</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Vipers</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>UPDF FC</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Vipers_X_UPDFFC#ambas</t>
+          <t>ArisLimas_X_PafosFC#ambas</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3877,41 +3877,41 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>2.22</v>
+        <v>1.9</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>/odds/vipers-updf-fc/29049471/</t>
+          <t>/odds/aris-limassol-pafos-fc/29796896/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>29631995</t>
+          <t>30016641</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Kataka FC</t>
+          <t>Concorde</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Airtel Kitara</t>
+          <t>Chemal FC</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>KatakaFC_X_AirtelKit#2.5</t>
+          <t>Concorde_X_ChemalFC#2.5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>18/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3920,41 +3920,41 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>/odds/kataka-fc-airtel-kitara/29631995/</t>
+          <t>/odds/concorde-chemal-fc/30016641/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>29685153</t>
+          <t>27945206</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Kalamata_X_Panachaiki#2.5</t>
+          <t>Altinordu_X_ManisaFK#2.5</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>18/11/2022 09:15</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3963,41 +3963,41 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>2.32</v>
+        <v>1.83</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>/odds/kalamata-panachaiki/29685153/</t>
+          <t>/odds/altinordu-manisa-fk/27945206/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>29685153</t>
+          <t>27945206</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Kalamata</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Panachaiki</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Kalamata_X_Panachaiki#ambas</t>
+          <t>Altinordu_X_ManisaFK#ambas</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>18/11/2022 09:15</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -4006,41 +4006,41 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>2.22</v>
+        <v>1.7</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>/odds/kalamata-panachaiki/29685153/</t>
+          <t>/odds/altinordu-manisa-fk/27945206/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>27878485</t>
+          <t>29523271</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>East Bengal Club</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EastBenga_X_Odisha#2.5</t>
+          <t>FKCsiksze_X_CSComunal#2.5</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>18/11/2022 10:00</t>
+          <t>28/11/2022 14:00</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -4049,41 +4049,41 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>/odds/east-bengal-club-odisha/27878485/</t>
+          <t>/odds/fk-csikszereda-miercurea-ciuc-cs-comunal-1559-selimbar/29523271/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>202</v>
+        <v>163</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>27878485</t>
+          <t>29523271</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>East Bengal Club</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Odisha</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>EastBenga_X_Odisha#ambas</t>
+          <t>FKCsiksze_X_CSComunal#ambas</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>18/11/2022 10:00</t>
+          <t>28/11/2022 14:00</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -4092,41 +4092,41 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>/odds/east-bengal-club-odisha/27878485/</t>
+          <t>/odds/fk-csikszereda-miercurea-ciuc-cs-comunal-1559-selimbar/29523271/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>205</v>
+        <v>166</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>29602136</t>
+          <t>29791864</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Al Hikma</t>
+          <t>KV Kortrijk Sub-21</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Al Ahed FC</t>
+          <t>Sint-Truidense VV Sub-21</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>AlHikma_X_AlAhedFC#2.5</t>
+          <t>KVKortrij_X_SintTruid#2.5</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>18/11/2022 10:30</t>
+          <t>28/11/2022 14:30</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -4135,41 +4135,41 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>/odds/al-hikma-al-ahed-fc/29602136/</t>
+          <t>/odds/kv-kortrijk-sub-21-sint-truidense-vv-sub-21/29791864/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>29636781</t>
+          <t>25861040</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Egito</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Belgica_X_Egito#2.5</t>
+          <t>Portugal_X_Uruguai#2.5</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>18/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4178,41 +4178,41 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>/odds/belgica-egito/29636781/</t>
+          <t>/world-cup/odds/portugal-uruguai/25861040/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>29636781</t>
+          <t>25861040</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Bélgica</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Egito</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Belgica_X_Egito#ambas</t>
+          <t>Portugal_X_Uruguai#ambas</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>18/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -4221,41 +4221,41 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>/odds/belgica-egito/29636781/</t>
+          <t>/world-cup/odds/portugal-uruguai/25861040/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>29708766</t>
+          <t>29987549</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Chabab Ben Guerir</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Raja Beni Mellal</t>
+          <t>Charlton Sub-21</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>ChababBen_X_RajaBeni#2.5</t>
+          <t>Nottingham_X_CharltonS#2.5</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>18/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -4264,41 +4264,41 @@
         </is>
       </c>
       <c r="H90" t="n">
-        <v>2.62</v>
+        <v>1.37</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>/odds/chabab-ben-guerir-raja-beni-mellal/29708766/</t>
+          <t>/odds/nottingham-forest-sub-21-charlton-sub-21/29987549/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>29708766</t>
+          <t>29987549</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Chabab Ben Guerir</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Raja Beni Mellal</t>
+          <t>Charlton Sub-21</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>ChababBen_X_RajaBeni#ambas</t>
+          <t>Nottingham_X_CharltonS#ambas</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>18/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -4307,41 +4307,41 @@
         </is>
       </c>
       <c r="H91" t="n">
-        <v>2.42</v>
+        <v>1.47</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>/odds/chabab-ben-guerir-raja-beni-mellal/29708766/</t>
+          <t>/odds/nottingham-forest-sub-21-charlton-sub-21/29987549/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>219</v>
+        <v>181</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>29708767</t>
+          <t>29987550</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Chabab Atlas Khenifra</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Ittifaq Marrakech</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>ChababAtl_X_IttifaqMa#2.5</t>
+          <t>Sunderland_X_Wolverhamp#2.5</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>18/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -4350,41 +4350,41 @@
         </is>
       </c>
       <c r="H92" t="n">
-        <v>2.47</v>
+        <v>1.44</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>/odds/chabab-atlas-khenifra-ittifaq-marrakech/29708767/</t>
+          <t>/odds/sunderland-afc-sub-21-wolverhampton-sub-21/29987550/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>29708767</t>
+          <t>29987550</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Chabab Atlas Khenifra</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Ittifaq Marrakech</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>ChababAtl_X_IttifaqMa#ambas</t>
+          <t>Sunderland_X_Wolverhamp#ambas</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>18/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -4393,41 +4393,41 @@
         </is>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1.47</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>/odds/chabab-atlas-khenifra-ittifaq-marrakech/29708767/</t>
+          <t>/odds/sunderland-afc-sub-21-wolverhampton-sub-21/29987550/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>225</v>
+        <v>186</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>29533526</t>
+          <t>29987552</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>1. FC Slovacko</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FK Mlada Boleslav</t>
+          <t>Derby County Sub-21</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1FCSlov_X_FKMladaB#2.5</t>
+          <t>QueensPar_X_DerbyCoun#2.5</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>18/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -4436,41 +4436,41 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>/odds/1-fc-slovacko-fk-mlada-boleslav/29533526/</t>
+          <t>/odds/queens-park-rangers-sub-21-derby-county-sub-21/29987552/</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
-        <v>227</v>
+        <v>188</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>29533526</t>
+          <t>29987552</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>1. FC Slovacko</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>FK Mlada Boleslav</t>
+          <t>Derby County Sub-21</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>1FCSlov_X_FKMladaB#ambas</t>
+          <t>QueensPar_X_DerbyCoun#ambas</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>18/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -4479,41 +4479,41 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1.65</v>
+        <v>1.37</v>
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>/odds/1-fc-slovacko-fk-mlada-boleslav/29533526/</t>
+          <t>/odds/queens-park-rangers-sub-21-derby-county-sub-21/29987552/</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
-        <v>230</v>
+        <v>191</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>29636812</t>
+          <t>29987553</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Barém</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Stoke City II</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Barem_X_Servia#2.5</t>
+          <t>BurnleySu_X_StokeCity#2.5</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>18/11/2022 11:30</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4522,41 +4522,41 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>/odds/barem-servia/29636812/</t>
+          <t>/odds/burnley-sub-21-stoke-city-ii/29987553/</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>29636812</t>
+          <t>29987553</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Barém</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Stoke City II</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Barem_X_Servia#ambas</t>
+          <t>BurnleySu_X_StokeCity#ambas</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>18/11/2022 11:30</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4565,41 +4565,41 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>/odds/barem-servia/29636812/</t>
+          <t>/odds/burnley-sub-21-stoke-city-ii/29987553/</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>29708768</t>
+          <t>29820577</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>UE Santa Coloma II</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Racing Athletique Du Casablanca</t>
+          <t>UE Engordany II</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Youssoufia_X_RacingAth#2.5</t>
+          <t>UESantaC_X_UEEngorda#2.5</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>18/11/2022 12:00</t>
+          <t>28/11/2022 15:30</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4608,170 +4608,170 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>2.62</v>
+        <v>1.55</v>
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>/odds/youssoufia-berrechid-racing-athletique-du-casablanca/29708768/</t>
+          <t>/odds/ue-santa-coloma-ii-ue-engordany-ii/29820577/</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>29708768</t>
+          <t>29713616</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Youssoufia Berrechid</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Racing Athletique Du Casablanca</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Youssoufia_X_RacingAth#ambas</t>
+          <t>UnionArzi_X_LRVicenza#2.5</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>18/11/2022 12:00</t>
+          <t>28/11/2022 15:30</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>/odds/youssoufia-berrechid-racing-athletique-du-casablanca/29708768/</t>
+          <t>/odds/union-arzignanochiampo-lr-vicenza/29713616/</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
-        <v>246</v>
+        <v>203</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>29585655</t>
+          <t>29713616</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MFK Karvina</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Slavia Praga</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MFKKarvin_X_SlaviaPra#2.5</t>
+          <t>UnionArzi_X_LRVicenza#ambas</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>18/11/2022 12:00</t>
+          <t>28/11/2022 15:30</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1.4</v>
+        <v>1.87</v>
       </c>
       <c r="I100" t="inlineStr">
         <is>
-          <t>/odds/mfk-karvina-slavia-praga/29585655/</t>
+          <t>/odds/union-arzignanochiampo-lr-vicenza/29713616/</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>29585655</t>
+          <t>30016642</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>MFK Karvina</t>
+          <t>FC Inter Nouakchott</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Slavia Praga</t>
+          <t>AS Douanes</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MFKKarvin_X_SlaviaPra#ambas</t>
+          <t>FCInterN_X_ASDouanes#2.5</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>18/11/2022 12:00</t>
+          <t>28/11/2022 15:40</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>2.5</v>
+        <v>2.12</v>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>/odds/mfk-karvina-slavia-praga/29585655/</t>
+          <t>/odds/fc-inter-nouakchott-as-douanes/30016642/</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
-        <v>254</v>
+        <v>209</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>29747104</t>
+          <t>29875089</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Demba Diop</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Dakar University Club</t>
+          <t>Billericay Town</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>DembaDiop_X_DakarUniv#2.5</t>
+          <t>Carshalton_X_Billericay#2.5</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>18/11/2022 12:30</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -4780,84 +4780,84 @@
         </is>
       </c>
       <c r="H102" t="n">
-        <v>2.35</v>
+        <v>1.65</v>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>/odds/demba-diop-dakar-university-club/29747104/</t>
+          <t>/odds/carshalton-athletic-billericay-town/29875089/</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>29711862</t>
+          <t>29875089</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Concorde</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>FC Medine Trarza</t>
+          <t>Billericay Town</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Concorde_X_FCMedine#2.5</t>
+          <t>Carshalton_X_Billericay#ambas</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>18/11/2022 13:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="I103" t="inlineStr">
         <is>
-          <t>/odds/concorde-fc-medine-trarza/29711862/</t>
+          <t>/odds/carshalton-athletic-billericay-town/29875089/</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>27791549</t>
+          <t>29875736</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Redditch United</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>YeniMalat_X_Pendikspor#2.5</t>
+          <t>HitchinTo_X_RedditchU#2.5</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>18/11/2022 13:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -4866,41 +4866,41 @@
         </is>
       </c>
       <c r="H104" t="n">
-        <v>1.85</v>
+        <v>1.72</v>
       </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>/odds/yeni-malatyaspor-pendikspor/27791549/</t>
+          <t>/odds/hitchin-town-redditch-united/29875736/</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>27791549</t>
+          <t>29875736</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Redditch United</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>YeniMalat_X_Pendikspor#ambas</t>
+          <t>HitchinTo_X_RedditchU#ambas</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>18/11/2022 13:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4909,41 +4909,41 @@
         </is>
       </c>
       <c r="H105" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>/odds/yeni-malatyaspor-pendikspor/27791549/</t>
+          <t>/odds/hitchin-town-redditch-united/29875736/</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>28693166</t>
+          <t>30020167</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Kings Langley</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>FCEindhov_X_SCTelstar#2.5</t>
+          <t>KingsLang_X_NuneatonB#2.5</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>18/11/2022 13:45</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4952,41 +4952,41 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>/odds/fc-eindhoven-sc-telstar/28693166/</t>
+          <t>/odds/kings-langley-nuneaton-borough-fc/30020167/</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>28693166</t>
+          <t>30020167</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Kings Langley</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>SC Telstar</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>FCEindhov_X_SCTelstar#ambas</t>
+          <t>KingsLang_X_NuneatonB#ambas</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>18/11/2022 13:45</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4995,41 +4995,41 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>1.82</v>
+        <v>1.62</v>
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>/odds/fc-eindhoven-sc-telstar/28693166/</t>
+          <t>/odds/kings-langley-nuneaton-borough-fc/30020167/</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>274</v>
+        <v>224</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>29747107</t>
+          <t>30020135</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Bouake FC</t>
+          <t>Binfield</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ES Bafing</t>
+          <t>Sutton Common Rovers</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>BouakeFC_X_ESBafing#2.5</t>
+          <t>Binfield_X_SuttonCom#2.5</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>18/11/2022 14:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -5038,41 +5038,41 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>/odds/bouake-fc-es-bafing/29747107/</t>
+          <t>/odds/binfield-sutton-common-rovers/30020135/</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>277</v>
+        <v>232</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>29602230</t>
+          <t>29875739</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Skive IK</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Esbjerg FB</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SkiveIK_X_EsbjergFB#2.5</t>
+          <t>LBChateau_X_LeMansUC#2.5</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>18/11/2022 14:00</t>
+          <t>28/11/2022 16:00</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -5081,41 +5081,41 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1.42</v>
+        <v>1.98</v>
       </c>
       <c r="I109" t="inlineStr">
         <is>
-          <t>/odds/skive-ik-esbjerg-fb/29602230/</t>
+          <t>/odds/lb-chateauroux-le-mans-uc-72/29875739/</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>279</v>
+        <v>234</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>29602230</t>
+          <t>29875739</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Skive IK</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Esbjerg FB</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SkiveIK_X_EsbjergFB#ambas</t>
+          <t>LBChateau_X_LeMansUC#ambas</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>18/11/2022 14:00</t>
+          <t>28/11/2022 16:00</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -5124,41 +5124,41 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>1.52</v>
+        <v>1.78</v>
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>/odds/skive-ik-esbjerg-fb/29602230/</t>
+          <t>/odds/lb-chateauroux-le-mans-uc-72/29875739/</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>282</v>
+        <v>237</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>29711382</t>
+          <t>27945249</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Lyon la Duchere</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Annecy FC</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>LyonlaDu_X_AnnecyFC#2.5</t>
+          <t>UDIbiza_X_FCAndorra#2.5</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>18/11/2022 14:00</t>
+          <t>28/11/2022 16:00</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -5167,2720 +5167,54 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>1.82</v>
+        <v>2.4</v>
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>/odds/lyon-la-duchere-annecy-fc/29711382/</t>
+          <t>/odds/ud-ibiza-fc-andorra/27945249/</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>29602209</t>
+          <t>27945249</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Etsv Weiche Flensburg</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Hamburgo II</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>EtsvWeich_X_HamburgoI#2.5</t>
+          <t>UDIbiza_X_FCAndorra#ambas</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>18/11/2022 14:00</t>
+          <t>28/11/2022 16:00</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1.57</v>
+        <v>1.98</v>
       </c>
       <c r="I112" t="inlineStr">
         <is>
-          <t>/odds/etsv-weiche-flensburg-hamburgo-ii/29602209/</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>29602209</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>Etsv Weiche Flensburg</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>Hamburgo II</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>EtsvWeich_X_HamburgoI#ambas</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H113" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I113" t="inlineStr">
-        <is>
-          <t>/odds/etsv-weiche-flensburg-hamburgo-ii/29602209/</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>28692124</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>FC Astoria Walldorf</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>Bahlinger SC</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>FCAstoria_X_Bahlinger#2.5</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G114" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H114" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I114" t="inlineStr">
-        <is>
-          <t>/odds/fc-astoria-walldorf-bahlinger-sc/28692124/</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>28692124</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>FC Astoria Walldorf</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>Bahlinger SC</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>FCAstoria_X_Bahlinger#ambas</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H115" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>/odds/fc-astoria-walldorf-bahlinger-sc/28692124/</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>28692135</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>Offenbacher Kickers</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>Eintracht Trier</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Offenbache_X_Eintracht#2.5</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G116" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H116" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I116" t="inlineStr">
-        <is>
-          <t>/odds/offenbacher-kickers-eintracht-trier/28692135/</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>28692135</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>Offenbacher Kickers</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>Eintracht Trier</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Offenbache_X_Eintracht#ambas</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H117" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I117" t="inlineStr">
-        <is>
-          <t>/odds/offenbacher-kickers-eintracht-trier/28692135/</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>28692138</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>TSG Balingen</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>FC Rot-Weiss Koblenz</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>TSGBaling_X_FCRotWei#2.5</t>
-        </is>
-      </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H118" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I118" t="inlineStr">
-        <is>
-          <t>/odds/tsg-balingen-fc-rot-weiss-koblenz/28692138/</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>28692138</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>TSG Balingen</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>FC Rot-Weiss Koblenz</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>TSGBaling_X_FCRotWei#ambas</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H119" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>/odds/tsg-balingen-fc-rot-weiss-koblenz/28692138/</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>29522168</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>Bonner SC Sub-19</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen Sub-19</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>BonnerSC_X_BayerLeve#2.5</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H120" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I120" t="inlineStr">
-        <is>
-          <t>/odds/bonner-sc-sub-19-bayer-leverkusen-sub-19/29522168/</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>316</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>29522168</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Bonner SC Sub-19</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>Bayer Leverkusen Sub-19</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>BonnerSC_X_BayerLeve#ambas</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H121" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I121" t="inlineStr">
-        <is>
-          <t>/odds/bonner-sc-sub-19-bayer-leverkusen-sub-19/29522168/</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>29747109</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Watanga</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>Cece United</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>Watanga_X_CeceUnite#2.5</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I122" t="inlineStr">
-        <is>
-          <t>/odds/watanga-cece-united/29747109/</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>322</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>29585011</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Arouca</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>Feirense</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>Arouca_X_Feirense#2.5</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H123" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="I123" t="inlineStr">
-        <is>
-          <t>/odds/arouca-feirense/29585011/</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>324</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>29585011</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>Arouca</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>Feirense</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>Arouca_X_Feirense#ambas</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:00</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H124" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>/odds/arouca-feirense/29585011/</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>29602250</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>VB 1968</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>BK Skjold</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>VB1968_X_BKSkjold#2.5</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:15</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H125" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I125" t="inlineStr">
-        <is>
-          <t>/odds/vb-1968-bk-skjold/29602250/</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>331</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>29663520</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Rot-Weiss Oberhausen</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>FC Bocholt</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>RotWeiss_X_FCBocholt#2.5</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:30</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H126" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I126" t="inlineStr">
-        <is>
-          <t>/odds/rot-weiss-oberhausen-fc-bocholt/29663520/</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>333</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>29663520</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Rot-Weiss Oberhausen</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>FC Bocholt</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>RotWeiss_X_FCBocholt#ambas</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:30</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H127" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>/odds/rot-weiss-oberhausen-fc-bocholt/29663520/</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>29550606</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Neuchatel Xamax FC</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>FC Wil 1900</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Neuchatel_X_FCWil190#2.5</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:30</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H128" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>/odds/neuchatel-xamax-fc-fc-wil-1900/29550606/</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>29550606</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>Neuchatel Xamax FC</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>FC Wil 1900</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>Neuchatel_X_FCWil190#ambas</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>18/11/2022 14:30</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H129" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>/odds/neuchatel-xamax-fc-fc-wil-1900/29550606/</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>29711319</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Brentford Sub-21</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>Peterborough Sub-21</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>Brentford_X_Peterborou#2.5</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H130" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I130" t="inlineStr">
-        <is>
-          <t>/odds/brentford-sub-21-peterborough-sub-21/29711319/</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>29711319</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Brentford Sub-21</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>Peterborough Sub-21</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>Brentford_X_Peterborou#ambas</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H131" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="I131" t="inlineStr">
-        <is>
-          <t>/odds/brentford-sub-21-peterborough-sub-21/29711319/</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>29711320</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Huddersfield Town Sub-21</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>West Bromwich Albion Sub-21</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>Huddersfie_X_WestBromw#2.5</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H132" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>/odds/huddersfield-town-sub-21-west-bromwich-albion-sub-21/29711320/</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>29711320</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Huddersfield Town Sub-21</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>West Bromwich Albion Sub-21</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>Huddersfie_X_WestBromw#ambas</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H133" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I133" t="inlineStr">
-        <is>
-          <t>/odds/huddersfield-town-sub-21-west-bromwich-albion-sub-21/29711320/</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>29711321</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Nottingham Forest Sub-21</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>Hull City Sub-21</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Nottingham_X_HullCity#2.5</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H134" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>/odds/nottingham-forest-sub-21-hull-city-sub-21/29711321/</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>29711321</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Nottingham Forest Sub-21</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>Hull City Sub-21</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>Nottingham_X_HullCity#ambas</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H135" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>/odds/nottingham-forest-sub-21-hull-city-sub-21/29711321/</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>29686928</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Espanha Sub-21</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Japão Sub-21</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>EspanhaSu_X_JapaoSub#2.5</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H136" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I136" t="inlineStr">
-        <is>
-          <t>/odds/espanha-sub-21-japao-sub-21/29686928/</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>29686928</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Espanha Sub-21</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>Japão Sub-21</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>EspanhaSu_X_JapaoSub#ambas</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H137" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I137" t="inlineStr">
-        <is>
-          <t>/odds/espanha-sub-21-japao-sub-21/29686928/</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>28739657</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Lommel SK</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>Genk II</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>LommelSK_X_GenkII#2.5</t>
-        </is>
-      </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H138" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>/odds/lommel-sk-genk-ii/28739657/</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>28739657</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Lommel SK</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>Genk II</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>LommelSK_X_GenkII#ambas</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H139" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>/odds/lommel-sk-genk-ii/28739657/</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>29584315</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Royal Excelsior Virton</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>SL16 FC</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>RoyalExce_X_SL16FC#2.5</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H140" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>/odds/royal-excelsior-virton-sl16-fc/29584315/</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>29584315</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Royal Excelsior Virton</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>SL16 FC</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>RoyalExce_X_SL16FC#ambas</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H141" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>/odds/royal-excelsior-virton-sl16-fc/29584315/</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>29686932</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Portugal Sub-21</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>República Tcheca Sub-21</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>PortugalS_X_Republica#2.5</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:15</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H142" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>/odds/portugal-sub-21-republica-tcheca-sub-21/29686932/</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>29686932</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Portugal Sub-21</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>República Tcheca Sub-21</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>PortugalS_X_Republica#ambas</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:15</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H143" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>/odds/portugal-sub-21-republica-tcheca-sub-21/29686932/</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>29527121</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>AC Bellinzona</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>FC Thun</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>ACBellinz_X_FCThun#2.5</t>
-        </is>
-      </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:15</t>
-        </is>
-      </c>
-      <c r="G144" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H144" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I144" t="inlineStr">
-        <is>
-          <t>/odds/ac-bellinzona-fc-thun/29527121/</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>29527121</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>AC Bellinzona</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>FC Thun</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>ACBellinz_X_FCThun#ambas</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:15</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H145" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I145" t="inlineStr">
-        <is>
-          <t>/odds/ac-bellinzona-fc-thun/29527121/</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>29742200</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Kilbarrack United</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>Ayrfield United</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Kilbarrack_X_AyrfieldU#2.5</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:30</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H146" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>/odds/kilbarrack-united-ayrfield-united/29742200/</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>29742200</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Kilbarrack United</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>Ayrfield United</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>Kilbarrack_X_AyrfieldU#ambas</t>
-        </is>
-      </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:30</t>
-        </is>
-      </c>
-      <c r="G147" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H147" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I147" t="inlineStr">
-        <is>
-          <t>/odds/kilbarrack-united-ayrfield-united/29742200/</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>28692987</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Lechia Gdansk</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>Gornik Zabrze</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>LechiaGda_X_GornikZab#2.5</t>
-        </is>
-      </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:30</t>
-        </is>
-      </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H148" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I148" t="inlineStr">
-        <is>
-          <t>/odds/lechia-gdansk-gornik-zabrze/28692987/</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>28692987</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Lechia Gdansk</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>Gornik Zabrze</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>LechiaGda_X_GornikZab#ambas</t>
-        </is>
-      </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:30</t>
-        </is>
-      </c>
-      <c r="G149" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H149" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I149" t="inlineStr">
-        <is>
-          <t>/odds/lechia-gdansk-gornik-zabrze/28692987/</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>29711863</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>ASC Tevragh-Zeina</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>ASC Gendrim</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>ASCTevrag_X_ASCGendri#2.5</t>
-        </is>
-      </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:40</t>
-        </is>
-      </c>
-      <c r="G150" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H150" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="I150" t="inlineStr">
-        <is>
-          <t>/odds/asc-tevragh-zeina-asc-gendrim/29711863/</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>28693180</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Connah's Quay Nomads FC</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>Caernarfon Town</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>Connah'sQ_X_Caernarfon#2.5</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H151" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I151" t="inlineStr">
-        <is>
-          <t>/odds/connahs-quay-nomads-fc-caernarfon-town/28693180/</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>28693180</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Connah's Quay Nomads FC</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>Caernarfon Town</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>Connah'sQ_X_Caernarfon#ambas</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G152" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H152" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I152" t="inlineStr">
-        <is>
-          <t>/odds/connahs-quay-nomads-fc-caernarfon-town/28693180/</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>29602171</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Larne FC</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>Dungannon Swifts</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>LarneFC_X_Dungannon#2.5</t>
-        </is>
-      </c>
-      <c r="F153" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G153" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H153" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="I153" t="inlineStr">
-        <is>
-          <t>/odds/larne-fc-dungannon-swifts/29602171/</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>29602171</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Larne FC</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Dungannon Swifts</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>LarneFC_X_Dungannon#ambas</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H154" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="I154" t="inlineStr">
-        <is>
-          <t>/odds/larne-fc-dungannon-swifts/29602171/</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>29602188</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Ballymena United FC</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Linfield FC</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Ballymena_X_LinfieldF#2.5</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H155" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>/odds/ballymena-united-fc-linfield-fc/29602188/</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>29602188</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Ballymena United FC</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>Linfield FC</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>Ballymena_X_LinfieldF#ambas</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>18/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H156" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I156" t="inlineStr">
-        <is>
-          <t>/odds/ballymena-united-fc-linfield-fc/29602188/</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>28763875</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Portsmouth FC</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Derby County</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>Portsmouth_X_DerbyCoun#2.5</t>
-        </is>
-      </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G157" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H157" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>/odds/portsmouth-fc-derby-county/28763875/</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>28763875</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Portsmouth FC</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>Derby County</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>Portsmouth_X_DerbyCoun#ambas</t>
-        </is>
-      </c>
-      <c r="F158" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G158" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H158" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>/odds/portsmouth-fc-derby-county/28763875/</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>28896136</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Aberystwyth Town</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>Pontypridd Town</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>Aberystwyt_X_Pontypridd#2.5</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G159" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H159" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>/odds/aberystwyth-town-pontypridd-town/28896136/</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>28896136</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Aberystwyth Town</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>Pontypridd Town</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>Aberystwyt_X_Pontypridd#ambas</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H160" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I160" t="inlineStr">
-        <is>
-          <t>/odds/aberystwyth-town-pontypridd-town/28896136/</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>28693167</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Helmond Sport</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>De Graafschap</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>HelmondSp_X_DeGraafsc#2.5</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G161" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H161" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I161" t="inlineStr">
-        <is>
-          <t>/odds/helmond-sport-de-graafschap/28693167/</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>28693167</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Helmond Sport</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>De Graafschap</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>HelmondSp_X_DeGraafsc#ambas</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G162" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H162" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I162" t="inlineStr">
-        <is>
-          <t>/odds/helmond-sport-de-graafschap/28693167/</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>29687185</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>St. Francis</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>Tolka Rovers</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>StFranci_X_TolkaRove#2.5</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G163" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H163" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="I163" t="inlineStr">
-        <is>
-          <t>/odds/st-francis-tolka-rovers/29687185/</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>29687185</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>St. Francis</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>Tolka Rovers</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>StFranci_X_TolkaRove#ambas</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G164" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H164" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I164" t="inlineStr">
-        <is>
-          <t>/odds/st-francis-tolka-rovers/29687185/</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>29742201</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>Swords Celtic</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>Home Farm FC</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>SwordsCel_X_HomeFarm#2.5</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H165" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="I165" t="inlineStr">
-        <is>
-          <t>/odds/swords-celtic-home-farm-fc/29742201/</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>29742201</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Swords Celtic</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>Home Farm FC</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>SwordsCel_X_HomeFarm#ambas</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G166" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H166" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="I166" t="inlineStr">
-        <is>
-          <t>/odds/swords-celtic-home-farm-fc/29742201/</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>27793920</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>Albacete Balompié</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>Granada_X_AlbaceteB#2.5</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H167" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="I167" t="inlineStr">
-        <is>
-          <t>/odds/granada-albacete-balompie/27793920/</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>27793920</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>Albacete Balompié</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Granada_X_AlbaceteB#ambas</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G168" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H168" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I168" t="inlineStr">
-        <is>
-          <t>/odds/granada-albacete-balompie/27793920/</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>29585012</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>B SAD</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>Boavista FC</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>BSAD_X_BoavistaF#2.5</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:30</t>
-        </is>
-      </c>
-      <c r="G169" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H169" t="n">
-        <v>2</v>
-      </c>
-      <c r="I169" t="inlineStr">
-        <is>
-          <t>/odds/b-sad-boavista-fc/29585012/</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>29585012</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>B SAD</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>Boavista FC</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>BSAD_X_BoavistaF#ambas</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>18/11/2022 16:30</t>
-        </is>
-      </c>
-      <c r="G170" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H170" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="I170" t="inlineStr">
-        <is>
-          <t>/odds/b-sad-boavista-fc/29585012/</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>29602254</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>UD Tamaraceite</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>UD San Fernando</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>UDTamarac_X_UDSanFer#2.5</t>
-        </is>
-      </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>18/11/2022 17:00</t>
-        </is>
-      </c>
-      <c r="G171" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H171" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="I171" t="inlineStr">
-        <is>
-          <t>/odds/ud-tamaraceite-ud-san-fernando/29602254/</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>29602254</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>UD Tamaraceite</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>UD San Fernando</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>UDTamarac_X_UDSanFer#ambas</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>18/11/2022 17:00</t>
-        </is>
-      </c>
-      <c r="G172" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H172" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="I172" t="inlineStr">
-        <is>
-          <t>/odds/ud-tamaraceite-ud-san-fernando/29602254/</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>29602259</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Arucas CF</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>UD Villa Santa Brigida</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>ArucasCF_X_UDVillaS#2.5</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>18/11/2022 17:00</t>
-        </is>
-      </c>
-      <c r="G173" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H173" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="I173" t="inlineStr">
-        <is>
-          <t>/odds/arucas-cf-ud-villa-santa-brigida/29602259/</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>29602259</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>Arucas CF</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>UD Villa Santa Brigida</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>ArucasCF_X_UDVillaS#ambas</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
-        <is>
-          <t>18/11/2022 17:00</t>
-        </is>
-      </c>
-      <c r="G174" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H174" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t>/odds/arucas-cf-ud-villa-santa-brigida/29602259/</t>
+          <t>/odds/ud-ibiza-fc-andorra/27945249/</t>
         </is>
       </c>
     </row>

--- a/cotacoes_betano.xlsx
+++ b/cotacoes_betano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,27 +481,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>29988202</t>
+          <t>29987456</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>San Lorenzo de Alem</t>
+          <t>Shaanxi Changan</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>San Antonio Belen</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>SanLorenz_X_SanAntoni#2.5</t>
+          <t>ShaanxiCh_X_NantongZh#2.5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>27/11/2022 17:30</t>
+          <t>28/11/2022 02:00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -510,11 +510,11 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>/odds/san-lorenzo-de-alem-san-antonio-belen/29988202/</t>
+          <t>/odds/shaanxi-changan-nantong-zhiyun/29987456/</t>
         </is>
       </c>
     </row>
@@ -524,27 +524,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>29988202</t>
+          <t>29987456</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>San Lorenzo de Alem</t>
+          <t>Shaanxi Changan</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>San Antonio Belen</t>
+          <t>Nantong Zhiyun</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SanLorenz_X_SanAntoni#ambas</t>
+          <t>ShaanxiCh_X_NantongZh#ambas</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>27/11/2022 17:30</t>
+          <t>28/11/2022 02:00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -553,11 +553,11 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.35</v>
+        <v>1.93</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>/odds/san-lorenzo-de-alem-san-antonio-belen/29988202/</t>
+          <t>/odds/shaanxi-changan-nantong-zhiyun/29987456/</t>
         </is>
       </c>
     </row>
@@ -567,40 +567,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>29988203</t>
+          <t>30019430</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sportivo Biblioteca Atenas</t>
+          <t>CISF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Alumni Villa María</t>
+          <t>Shastri FC</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SportivoB_X_AlumniVil#2.5</t>
+          <t>CISF_X_ShastriFC#ambas</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>27/11/2022 17:30</t>
+          <t>28/11/2022 02:15</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.44</v>
+        <v>2.02</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>/odds/sportivo-biblioteca-atenas-alumni-villa-maria/29988203/</t>
+          <t>/odds/cisf-shastri-fc/30019430/</t>
         </is>
       </c>
     </row>
@@ -610,40 +610,40 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29988203</t>
+          <t>29987460</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sportivo Biblioteca Atenas</t>
+          <t>Xinjiang Tianshan</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Alumni Villa María</t>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SportivoB_X_AlumniVil#ambas</t>
+          <t>XinjiangT_X_QingdaoMa#2.5</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>27/11/2022 17:30</t>
+          <t>28/11/2022 04:00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.22</v>
+        <v>1.45</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>/odds/sportivo-biblioteca-atenas-alumni-villa-maria/29988203/</t>
+          <t>/odds/xinjiang-tianshan-qingdao-manatee/29987460/</t>
         </is>
       </c>
     </row>
@@ -653,40 +653,40 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>29959450</t>
+          <t>29987460</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9 de Julio Rafaela</t>
+          <t>Xinjiang Tianshan</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Nautico El Quilla</t>
+          <t>Qingdao Manatee</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9deJulio_X_NauticoEl#2.5</t>
+          <t>XinjiangT_X_QingdaoMa#ambas</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 04:00</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>/odds/9-de-julio-rafaela-nautico-el-quilla/29959450/</t>
+          <t>/odds/xinjiang-tianshan-qingdao-manatee/29987460/</t>
         </is>
       </c>
     </row>
@@ -696,40 +696,40 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>29959450</t>
+          <t>29934930</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9 de Julio Rafaela</t>
+          <t>Real Kashmir FC</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Nautico El Quilla</t>
+          <t>Churchill Brothers</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>9deJulio_X_NauticoEl#ambas</t>
+          <t>RealKashm_X_Churchill#2.5</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 04:30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.98</v>
+        <v>1.87</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>/odds/9-de-julio-rafaela-nautico-el-quilla/29959450/</t>
+          <t>/odds/real-kashmir-fc-churchill-brothers/29934930/</t>
         </is>
       </c>
     </row>
@@ -739,40 +739,40 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>29959451</t>
+          <t>29934930</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CS Deportivo La Emilia</t>
+          <t>Real Kashmir FC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Defensores La Esperanza</t>
+          <t>Churchill Brothers</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CSDeporti_X_Defensores#2.5</t>
+          <t>RealKashm_X_Churchill#ambas</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 04:30</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>/odds/cs-deportivo-la-emilia-defensores-la-esperanza/29959451/</t>
+          <t>/odds/real-kashmir-fc-churchill-brothers/29934930/</t>
         </is>
       </c>
     </row>
@@ -782,40 +782,40 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>29959451</t>
+          <t>30016788</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CS Deportivo La Emilia</t>
+          <t>Ssu Singjamei</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Defensores La Esperanza</t>
+          <t>Rising Athletic Union</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CSDeporti_X_Defensores#ambas</t>
+          <t>SsuSingja_X_RisingAth#2.5</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 04:35</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.35</v>
+        <v>1.57</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>/odds/cs-deportivo-la-emilia-defensores-la-esperanza/29959451/</t>
+          <t>/odds/ssu-singjamei-rising-athletic-union/30016788/</t>
         </is>
       </c>
     </row>
@@ -825,27 +825,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>29987311</t>
+          <t>25861032</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Racing Club de Eduardo Castex</t>
+          <t>Camarões</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Deportivo Mac Allister</t>
+          <t>Sérvia</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>RacingClu_X_Deportivo#2.5</t>
+          <t>Camaroes_X_Servia#2.5</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -854,11 +854,11 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.93</v>
+        <v>2.18</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>/odds/racing-club-de-eduardo-castex-deportivo-mac-allister/29987311/</t>
+          <t>/world-cup/odds/camaroes-servia/25861032/</t>
         </is>
       </c>
     </row>
@@ -868,27 +868,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>29987311</t>
+          <t>25861032</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Racing Club de Eduardo Castex</t>
+          <t>Camarões</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Deportivo Mac Allister</t>
+          <t>Sérvia</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>RacingClu_X_Deportivo#ambas</t>
+          <t>Camaroes_X_Servia#ambas</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -897,11 +897,11 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>/odds/racing-club-de-eduardo-castex-deportivo-mac-allister/29987311/</t>
+          <t>/world-cup/odds/camaroes-servia/25861032/</t>
         </is>
       </c>
     </row>
@@ -911,27 +911,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>29848108</t>
+          <t>29479055</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CD Cobreloa Calama</t>
+          <t>Lernayin Artsakh FC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>FC Van</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>CDCobrelo_X_DeportesC#2.5</t>
+          <t>LernayinA_X_FCVan#2.5</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -940,11 +940,11 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>/odds/cd-cobreloa-calama-deportes-copiapo/29848108/</t>
+          <t>/odds/lernayin-artsakh-fc-fc-van/29479055/</t>
         </is>
       </c>
     </row>
@@ -954,40 +954,40 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>29848108</t>
+          <t>29875712</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CD Cobreloa Calama</t>
+          <t>Shamakhi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Deportes Copiapo</t>
+          <t>FK Kapaz</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>CDCobrelo_X_DeportesC#ambas</t>
+          <t>Shamakhi_X_FKKapaz#2.5</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>/odds/cd-cobreloa-calama-deportes-copiapo/29848108/</t>
+          <t>/odds/shamakhi-fk-kapaz/29875712/</t>
         </is>
       </c>
     </row>
@@ -997,40 +997,40 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>29989140</t>
+          <t>29875712</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Shamakhi</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Indigenas de Matagalpa</t>
+          <t>FK Kapaz</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Managua_X_Indigenas#2.5</t>
+          <t>Shamakhi_X_FKKapaz#ambas</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>/odds/managua-indigenas-de-matagalpa/29989140/</t>
+          <t>/odds/shamakhi-fk-kapaz/29875712/</t>
         </is>
       </c>
     </row>
@@ -1040,40 +1040,40 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>29989140</t>
+          <t>29988711</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>FC Lokomotiv 1929 Sofia</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Indigenas de Matagalpa</t>
+          <t>FC Vitosha Bistritsa</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Managua_X_Indigenas#ambas</t>
+          <t>FCLokomot_X_FCVitosha#2.5</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>27/11/2022 18:00</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>2.07</v>
+        <v>1.4</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>/odds/managua-indigenas-de-matagalpa/29989140/</t>
+          <t>/odds/fc-lokomotiv-1929-sofia-fc-vitosha-bistritsa/29988711/</t>
         </is>
       </c>
     </row>
@@ -1083,40 +1083,40 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>29987319</t>
+          <t>29988711</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Club Atlético Uruguay</t>
+          <t>FC Lokomotiv 1929 Sofia</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>San Lorenzo Villa Adela</t>
+          <t>FC Vitosha Bistritsa</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>ClubAtlet_X_SanLorenz#2.5</t>
+          <t>FCLokomot_X_FCVitosha#ambas</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>27/11/2022 18:30</t>
+          <t>28/11/2022 06:00</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.87</v>
+        <v>2.22</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>/odds/club-atletico-uruguay-san-lorenzo-villa-adela/29987319/</t>
+          <t>/odds/fc-lokomotiv-1929-sofia-fc-vitosha-bistritsa/29988711/</t>
         </is>
       </c>
     </row>
@@ -1126,40 +1126,40 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>29987319</t>
+          <t>30019618</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Club Atlético Uruguay</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>San Lorenzo Villa Adela</t>
+          <t>Yokohama F Marinos</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ClubAtlet_X_SanLorenz#ambas</t>
+          <t>Roma_X_YokohamaF#2.5</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>27/11/2022 18:30</t>
+          <t>28/11/2022 06:30</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.78</v>
+        <v>1.62</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>/odds/club-atletico-uruguay-san-lorenzo-villa-adela/29987319/</t>
+          <t>/odds/roma-yokohama-f-marinos/30019618/</t>
         </is>
       </c>
     </row>
@@ -1169,40 +1169,40 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>29994314</t>
+          <t>30019618</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CA Sarmiento Leones</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>CD Municipal de Adelia Maria</t>
+          <t>Yokohama F Marinos</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CASarmien_X_CDMunicip#2.5</t>
+          <t>Roma_X_YokohamaF#ambas</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>27/11/2022 18:30</t>
+          <t>28/11/2022 06:30</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>/odds/ca-sarmiento-leones-cd-municipal-de-adelia-maria/29994314/</t>
+          <t>/odds/roma-yokohama-f-marinos/30019618/</t>
         </is>
       </c>
     </row>
@@ -1212,40 +1212,40 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>29959418</t>
+          <t>30019622</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sportivo Baradero</t>
+          <t>Johor Darul Takzim</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Regatas de San Nicolas</t>
+          <t>Borussia Dortmund</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SportivoB_X_Regatasde#2.5</t>
+          <t>JohorDaru_X_BorussiaD#ambas</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>27/11/2022 19:00</t>
+          <t>28/11/2022 07:00</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.45</v>
+        <v>1.93</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>/odds/sportivo-baradero-regatas-de-san-nicolas/29959418/</t>
+          <t>/odds/johor-darul-takzim-borussia-dortmund/30019622/</t>
         </is>
       </c>
     </row>
@@ -1255,40 +1255,40 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>29959418</t>
+          <t>29444258</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sportivo Baradero</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Regatas de San Nicolas</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>SportivoB_X_Regatasde#ambas</t>
+          <t>FCOleksan_X_RukhLviv#2.5</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>27/11/2022 19:00</t>
+          <t>28/11/2022 07:00</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.62</v>
+        <v>1.85</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>/odds/sportivo-baradero-regatas-de-san-nicolas/29959418/</t>
+          <t>/odds/fc-oleksandriya-rukh-lviv/29444258/</t>
         </is>
       </c>
     </row>
@@ -1298,40 +1298,40 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>29987362</t>
+          <t>29444258</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Club Atletico el Linqueno</t>
+          <t>FC Oleksandriya</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Sportivo Barracas</t>
+          <t>Rukh Lviv</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ClubAtlet_X_SportivoB#2.5</t>
+          <t>FCOleksan_X_RukhLviv#ambas</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>27/11/2022 19:00</t>
+          <t>28/11/2022 07:00</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>/odds/club-atletico-el-linqueno-sportivo-barracas/29987362/</t>
+          <t>/odds/fc-oleksandriya-rukh-lviv/29444258/</t>
         </is>
       </c>
     </row>
@@ -1341,40 +1341,40 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>29987362</t>
+          <t>30019454</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Club Atletico el Linqueno</t>
+          <t>Atletico River Plate II</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Sportivo Barracas</t>
+          <t>Cerro Largo II</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ClubAtlet_X_SportivoB#ambas</t>
+          <t>AtleticoR_X_CerroLarg#2.5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>27/11/2022 19:00</t>
+          <t>28/11/2022 07:30</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>/odds/club-atletico-el-linqueno-sportivo-barracas/29987362/</t>
+          <t>/odds/atletico-river-plate-ii-cerro-largo-ii/30019454/</t>
         </is>
       </c>
     </row>
@@ -1384,27 +1384,27 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>29552957</t>
+          <t>29987546</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Millonarios FC</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atlético Junior</t>
+          <t>Fulham FC Sub-21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Millonario_X_AtleticoJ#2.5</t>
+          <t>HullCity_X_FulhamFC#2.5</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>27/11/2022 19:00</t>
+          <t>28/11/2022 08:00</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1413,11 +1413,11 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>/odds/millonarios-fc-atletico-junior/29552957/</t>
+          <t>/odds/hull-city-sub-21-fulham-fc-sub-21/29987546/</t>
         </is>
       </c>
     </row>
@@ -1427,27 +1427,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>29552957</t>
+          <t>29987546</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Millonarios FC</t>
+          <t>Hull City Sub-21</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Atlético Junior</t>
+          <t>Fulham FC Sub-21</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Millonario_X_AtleticoJ#ambas</t>
+          <t>HullCity_X_FulhamFC#ambas</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>27/11/2022 19:00</t>
+          <t>28/11/2022 08:00</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1456,11 +1456,11 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.35</v>
+        <v>1.62</v>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>/odds/millonarios-fc-atletico-junior/29552957/</t>
+          <t>/odds/hull-city-sub-21-fulham-fc-sub-21/29987546/</t>
         </is>
       </c>
     </row>
@@ -1470,27 +1470,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>29987363</t>
+          <t>29444256</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Juventud De Pergamino</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Villa Belgrano</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>JuventudD_X_VillaBelg#2.5</t>
+          <t>KryvbasKr_X_SCDnipro#2.5</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>27/11/2022 19:30</t>
+          <t>28/11/2022 08:00</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1499,11 +1499,11 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2.18</v>
+        <v>1.75</v>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>/odds/juventud-de-pergamino-villa-belgrano/29987363/</t>
+          <t>/odds/kryvbas-kryvyi-rih-sc-dnipro-1/29444256/</t>
         </is>
       </c>
     </row>
@@ -1513,27 +1513,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>29987363</t>
+          <t>29444256</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Juventud De Pergamino</t>
+          <t>Kryvbas Kryvyi Rih</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Villa Belgrano</t>
+          <t>SC Dnipro-1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>JuventudD_X_VillaBelg#ambas</t>
+          <t>KryvbasKr_X_SCDnipro#ambas</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>27/11/2022 19:30</t>
+          <t>28/11/2022 08:00</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1542,11 +1542,11 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2.02</v>
+        <v>1.78</v>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>/odds/juventud-de-pergamino-villa-belgrano/29987363/</t>
+          <t>/odds/kryvbas-kryvyi-rih-sc-dnipro-1/29444256/</t>
         </is>
       </c>
     </row>
@@ -1556,27 +1556,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>29992488</t>
+          <t>25809856</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>UNAN Managua</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Real Esteli</t>
+          <t>Gana</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>UNANManag_X_RealEstel#2.5</t>
+          <t>Coreiado_X_Gana#2.5</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>27/11/2022 21:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1585,11 +1585,11 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>/odds/unan-managua-real-esteli/29992488/</t>
+          <t>/world-cup/odds/coreia-do-sul-gana/25809856/</t>
         </is>
       </c>
     </row>
@@ -1599,27 +1599,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>29992488</t>
+          <t>25809856</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>UNAN Managua</t>
+          <t>Coréia do Sul</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Real Esteli</t>
+          <t>Gana</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>UNANManag_X_RealEstel#ambas</t>
+          <t>Coreiado_X_Gana#ambas</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>27/11/2022 21:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1628,11 +1628,11 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>/odds/unan-managua-real-esteli/29992488/</t>
+          <t>/world-cup/odds/coreia-do-sul-gana/25809856/</t>
         </is>
       </c>
     </row>
@@ -1642,27 +1642,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>29552956</t>
+          <t>29987547</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Bristol City Sub-21</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Independiente Santa Fe</t>
+          <t>Crystal Palace Sub-21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Deportivo_X_Independie#2.5</t>
+          <t>BristolCi_X_CrystalPa#2.5</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>27/11/2022 21:05</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1671,11 +1671,11 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.83</v>
+        <v>1.42</v>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>/odds/deportivo-pereira-independiente-santa-fe/29552956/</t>
+          <t>/odds/bristol-city-sub-21-crystal-palace-sub-21/29987547/</t>
         </is>
       </c>
     </row>
@@ -1685,27 +1685,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>29552956</t>
+          <t>29987547</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Deportivo Pereira</t>
+          <t>Bristol City Sub-21</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Independiente Santa Fe</t>
+          <t>Crystal Palace Sub-21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Deportivo_X_Independie#ambas</t>
+          <t>BristolCi_X_CrystalPa#ambas</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>27/11/2022 21:05</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1714,11 +1714,11 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.7</v>
+        <v>1.42</v>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>/odds/deportivo-pereira-independiente-santa-fe/29552956/</t>
+          <t>/odds/bristol-city-sub-21-crystal-palace-sub-21/29987547/</t>
         </is>
       </c>
     </row>
@@ -1728,27 +1728,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>29987456</t>
+          <t>29987602</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Shaanxi Changan</t>
+          <t>Defence Force FC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Nantong Zhiyun</t>
+          <t>Ethio Electric SC</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ShaanxiCh_X_NantongZh#2.5</t>
+          <t>DefenceFo_X_EthioElec#2.5</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>28/11/2022 02:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1757,11 +1757,11 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>/odds/shaanxi-changan-nantong-zhiyun/29987456/</t>
+          <t>/odds/defence-force-fc-ethio-electric-sc/29987602/</t>
         </is>
       </c>
     </row>
@@ -1769,44 +1769,14 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>29987456</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Shaanxi Changan</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Nantong Zhiyun</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>ShaanxiCh_X_NantongZh#ambas</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>28/11/2022 02:00</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>/odds/shaanxi-changan-nantong-zhiyun/29987456/</t>
-        </is>
-      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1814,27 +1784,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>29934930</t>
+          <t>29960692</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Real Kashmir FC</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Churchill Brothers</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>RealKashm_X_Churchill#2.5</t>
+          <t>OFIerapet_X_Proodeftik#2.5</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>28/11/2022 04:30</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1843,41 +1813,41 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>/odds/real-kashmir-fc-churchill-brothers/29934930/</t>
+          <t>/odds/of-ierapetra-proodeftiki/29960692/</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>29934930</t>
+          <t>29960692</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Real Kashmir FC</t>
+          <t>OF Ierapetra</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Churchill Brothers</t>
+          <t>Proodeftiki</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RealKashm_X_Churchill#ambas</t>
+          <t>OFIerapet_X_Proodeftik#ambas</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>28/11/2022 04:30</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1886,41 +1856,41 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.75</v>
+        <v>1.88</v>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>/odds/real-kashmir-fc-churchill-brothers/29934930/</t>
+          <t>/odds/of-ierapetra-proodeftiki/29960692/</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>30016788</t>
+          <t>29960208</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ssu Singjamei</t>
+          <t>Al Jahra</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Rising Athletic Union</t>
+          <t>Al Sahel</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SsuSingja_X_RisingAth#2.5</t>
+          <t>AlJahra_X_AlSahel#2.5</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>28/11/2022 04:35</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1929,41 +1899,41 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.55</v>
+        <v>1.78</v>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>/odds/ssu-singjamei-rising-athletic-union/30016788/</t>
+          <t>/odds/al-jahra-al-sahel/29960208/</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25861032</t>
+          <t>30014571</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Al Nasar SC</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Al Tadamon</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Camaroes_X_Servia#2.5</t>
+          <t>AlNasarS_X_AlTadamon#2.5</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>28/11/2022 06:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1972,127 +1942,127 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>/world-cup/odds/camaroes-servia/25861032/</t>
+          <t>/odds/al-nasar-sc-al-tadamon/30014571/</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>25861032</t>
+          <t>30014568</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Camarões</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Sérvia</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Camaroes_X_Servia#ambas</t>
+          <t>EstrelaAm_X_MafraSub#2.5</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>28/11/2022 06:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>/world-cup/odds/camaroes-servia/25861032/</t>
+          <t>/odds/estrela-amadora-sub-23-mafra-sub-23/30014568/</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>29479055</t>
+          <t>30014568</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Lernayin Artsakh FC</t>
+          <t>Estrela Amadora Sub-23</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FC Van</t>
+          <t>Mafra Sub-23</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>LernayinA_X_FCVan#2.5</t>
+          <t>EstrelaAm_X_MafraSub#ambas</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>28/11/2022 06:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2.27</v>
+        <v>1.62</v>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>/odds/lernayin-artsakh-fc-fc-van/29479055/</t>
+          <t>/odds/estrela-amadora-sub-23-mafra-sub-23/30014568/</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>29875712</t>
+          <t>30014569</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>FC Famalicão Sub-23</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>FK Kapaz</t>
+          <t>Gil Vicente FC Sub-23</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Shamakhi_X_FKKapaz#2.5</t>
+          <t>FCFamalic_X_GilVicent#2.5</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>28/11/2022 06:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2101,41 +2071,41 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>/odds/shamakhi-fk-kapaz/29875712/</t>
+          <t>/odds/fc-famalicao-sub-23-gil-vicente-fc-sub-23/30014569/</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>29875712</t>
+          <t>30014569</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Shamakhi</t>
+          <t>FC Famalicão Sub-23</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>FK Kapaz</t>
+          <t>Gil Vicente FC Sub-23</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Shamakhi_X_FKKapaz#ambas</t>
+          <t>FCFamalic_X_GilVicent#ambas</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>28/11/2022 06:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2144,54 +2114,84 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>/odds/shamakhi-fk-kapaz/29875712/</t>
+          <t>/odds/fc-famalicao-sub-23-gil-vicente-fc-sub-23/30014569/</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
+        <v>52</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>29791814</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Marines</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>AS Kigali</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Marines_X_ASKigali#2.5</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>28/11/2022 09:00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Gols+2.5</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>/odds/marines-as-kigali/29791814/</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>29444258</t>
+          <t>29313074</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Express FC</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>FCOleksan_X_RukhLviv#2.5</t>
+          <t>WakisoGia_X_ExpressFC#2.5</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>28/11/2022 07:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2200,41 +2200,41 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>/odds/fc-oleksandriya-rukh-lviv/29444258/</t>
+          <t>/odds/wakiso-giants-express-fc/29313074/</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>29444258</t>
+          <t>29313074</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FC Oleksandriya</t>
+          <t>Wakiso Giants</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Rukh Lviv</t>
+          <t>Express FC</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>FCOleksan_X_RukhLviv#ambas</t>
+          <t>WakisoGia_X_ExpressFC#ambas</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>28/11/2022 07:00</t>
+          <t>28/11/2022 09:00</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2243,41 +2243,41 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>/odds/fc-oleksandriya-rukh-lviv/29444258/</t>
+          <t>/odds/wakiso-giants-express-fc/29313074/</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>29987546</t>
+          <t>29877443</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Hull City Sub-21</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Fulham FC Sub-21</t>
+          <t>Kallithea</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>HullCity_X_FulhamFC#2.5</t>
+          <t>Kifisia_X_Kallithea#2.5</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>28/11/2022 08:00</t>
+          <t>28/11/2022 09:15</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2286,41 +2286,41 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.44</v>
+        <v>2.65</v>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>/odds/hull-city-sub-21-fulham-fc-sub-21/29987546/</t>
+          <t>/odds/kifisia-kallithea/29877443/</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>29987546</t>
+          <t>29877443</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Hull City Sub-21</t>
+          <t>Kifisia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Fulham FC Sub-21</t>
+          <t>Kallithea</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>HullCity_X_FulhamFC#ambas</t>
+          <t>Kifisia_X_Kallithea#ambas</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>28/11/2022 08:00</t>
+          <t>28/11/2022 09:15</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2329,41 +2329,41 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>/odds/hull-city-sub-21-fulham-fc-sub-21/29987546/</t>
+          <t>/odds/kifisia-kallithea/29877443/</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>29444256</t>
+          <t>29791878</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>AS Giana Erminio</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>Crema 1908</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>KryvbasKr_X_SCDnipro#2.5</t>
+          <t>ASGianaE_X_Crema1908#2.5</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>28/11/2022 08:00</t>
+          <t>28/11/2022 09:30</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2372,299 +2372,299 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>/odds/kryvbas-kryvyi-rih-sc-dnipro-1/29444256/</t>
+          <t>/odds/as-giana-erminio-crema-1908/29791878/</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>29444256</t>
+          <t>29934931</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Kryvbas Kryvyi Rih</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SC Dnipro-1</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>KryvbasKr_X_SCDnipro#ambas</t>
+          <t>Punjab_X_AizawlFC#2.5</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>28/11/2022 08:00</t>
+          <t>28/11/2022 09:30</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>/odds/kryvbas-kryvyi-rih-sc-dnipro-1/29444256/</t>
+          <t>/odds/punjab-aizawl-fc/29934931/</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>25809856</t>
+          <t>29934931</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>Punjab</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>Aizawl FC</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Coreiado_X_Gana#2.5</t>
+          <t>Punjab_X_AizawlFC#ambas</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 09:30</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2.45</v>
+        <v>1.65</v>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>/world-cup/odds/coreia-do-sul-gana/25809856/</t>
+          <t>/odds/punjab-aizawl-fc/29934931/</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>25809856</t>
+          <t>29987548</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Coréia do Sul</t>
+          <t>Sheffield United Sub-21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Gana</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Coreiado_X_Gana#ambas</t>
+          <t>Sheffield_X_Newcastle#2.5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2.02</v>
+        <v>1.5</v>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>/world-cup/odds/coreia-do-sul-gana/25809856/</t>
+          <t>/odds/sheffield-united-sub-21-newcastle-united-sub-21/29987548/</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>29987547</t>
+          <t>29987548</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Bristol City Sub-21</t>
+          <t>Sheffield United Sub-21</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Crystal Palace Sub-21</t>
+          <t>Newcastle United Sub-21</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>BristolCi_X_CrystalPa#2.5</t>
+          <t>Sheffield_X_Newcastle#ambas</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>/odds/bristol-city-sub-21-crystal-palace-sub-21/29987547/</t>
+          <t>/odds/sheffield-united-sub-21-newcastle-united-sub-21/29987548/</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>29987547</t>
+          <t>29875714</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Bristol City Sub-21</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Crystal Palace Sub-21</t>
+          <t>Zira FK</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BristolCi_X_CrystalPa#ambas</t>
+          <t>QarabagFK_X_ZiraFK#2.5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>/odds/bristol-city-sub-21-crystal-palace-sub-21/29987547/</t>
+          <t>/odds/qarabag-fk-zira-fk/29875714/</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>29987602</t>
+          <t>29875714</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Defence Force FC</t>
+          <t>Qarabağ FK</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Ethio Electric SC</t>
+          <t>Zira FK</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>DefenceFo_X_EthioElec#2.5</t>
+          <t>QarabagFK_X_ZiraFK#ambas</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>/odds/defence-force-fc-ethio-electric-sc/29987602/</t>
+          <t>/odds/qarabag-fk-zira-fk/29875714/</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>29960692</t>
+          <t>29987689</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>SL Benfica (F)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>SC Braga (F)</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>OFIerapet_X_Proodeftik#2.5</t>
+          <t>SLBenfica_X_SCBraga(#2.5</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 11:00</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2673,84 +2673,84 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>/odds/of-ierapetra-proodeftiki/29960692/</t>
+          <t>/odds/sl-benfica-f-sc-braga-f/29987689/</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>29960692</t>
+          <t>29984463</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OF Ierapetra</t>
+          <t>ES Bafing</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Proodeftiki</t>
+          <t>Club Omnisports de Korhogo</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>OFIerapet_X_Proodeftik#ambas</t>
+          <t>ESBafing_X_ClubOmnis#2.5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 11:30</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>/odds/of-ierapetra-proodeftiki/29960692/</t>
+          <t>/odds/es-bafing-club-omnisports-de-korhogo/29984463/</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>29960208</t>
+          <t>25861035</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Al Jahra</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Al Sahel</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>AlJahra_X_AlSahel#2.5</t>
+          <t>Brasil_X_Suica#2.5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 12:00</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2759,84 +2759,84 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>/odds/al-jahra-al-sahel/29960208/</t>
+          <t>/world-cup/odds/brasil-suica/25861035/</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>30014571</t>
+          <t>25861035</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Al Nasar SC</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Al Tadamon</t>
+          <t>Suíça</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AlNasarS_X_AlTadamon#2.5</t>
+          <t>Brasil_X_Suica#ambas</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 12:00</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>/odds/al-nasar-sc-al-tadamon/30014571/</t>
+          <t>/world-cup/odds/brasil-suica/25861035/</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>30014568</t>
+          <t>29987601</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Estrela Amadora Sub-23</t>
+          <t>Ethiopian Medhin</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mafra Sub-23</t>
+          <t>Hawassa Kenema</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>EstrelaAm_X_MafraSub#2.5</t>
+          <t>Ethiopian_X_HawassaKe#2.5</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 12:00</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2845,213 +2845,213 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>/odds/estrela-amadora-sub-23-mafra-sub-23/30014568/</t>
+          <t>/odds/ethiopian-medhin-hawassa-kenema/29987601/</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>30014568</t>
+          <t>29446105</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Estrela Amadora Sub-23</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mafra Sub-23</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>EstrelaAm_X_MafraSub#ambas</t>
+          <t>Olympiakos_X_NeaSalami#2.5</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1.62</v>
+        <v>2.18</v>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>/odds/estrela-amadora-sub-23-mafra-sub-23/30014568/</t>
+          <t>/odds/olympiakos-nicosia-nea-salamina-famagusta/29446105/</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>30014569</t>
+          <t>29446105</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>FC Famalicão Sub-23</t>
+          <t>Olympiakos Nicosia</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Gil Vicente FC Sub-23</t>
+          <t>Nea Salamina Famagusta</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>FCFamalic_X_GilVicent#2.5</t>
+          <t>Olympiakos_X_NeaSalami#ambas</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1.62</v>
+        <v>1.9</v>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>/odds/fc-famalicao-sub-23-gil-vicente-fc-sub-23/30014569/</t>
+          <t>/odds/olympiakos-nicosia-nea-salamina-famagusta/29446105/</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>30014569</t>
+          <t>29796896</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>FC Famalicão Sub-23</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Gil Vicente FC Sub-23</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>FCFamalic_X_GilVicent#ambas</t>
+          <t>ArisLimas_X_PafosFC#2.5</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1.52</v>
+        <v>2.18</v>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>/odds/fc-famalicao-sub-23-gil-vicente-fc-sub-23/30014569/</t>
+          <t>/odds/aris-limassol-pafos-fc/29796896/</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>29791814</t>
+          <t>29796896</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Marines</t>
+          <t>Aris Limassol</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>AS Kigali</t>
+          <t>Pafos FC</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Marines_X_ASKigali#2.5</t>
+          <t>ArisLimas_X_PafosFC#ambas</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>2.27</v>
+        <v>1.88</v>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>/odds/marines-as-kigali/29791814/</t>
+          <t>/odds/aris-limassol-pafos-fc/29796896/</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>29313074</t>
+          <t>30016641</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Concorde</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Express FC</t>
+          <t>Chemal FC</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>WakisoGia_X_ExpressFC#2.5</t>
+          <t>Concorde_X_ChemalFC#2.5</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -3060,213 +3060,213 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>2.07</v>
+        <v>1.75</v>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>/odds/wakiso-giants-express-fc/29313074/</t>
+          <t>/odds/concorde-chemal-fc/30016641/</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>29313074</t>
+          <t>27945206</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Wakiso Giants</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Express FC</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>WakisoGia_X_ExpressFC#ambas</t>
+          <t>Altinordu_X_ManisaFK#2.5</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>28/11/2022 09:00</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>/odds/wakiso-giants-express-fc/29313074/</t>
+          <t>/odds/altinordu-manisa-fk/27945206/</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>29877443</t>
+          <t>27945206</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Kifisia_X_Kallithea#2.5</t>
+          <t>Altinordu_X_ManisaFK#ambas</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>28/11/2022 09:15</t>
+          <t>28/11/2022 13:00</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>2.65</v>
+        <v>1.7</v>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>/odds/kifisia-kallithea/29877443/</t>
+          <t>/odds/altinordu-manisa-fk/27945206/</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>29877443</t>
+          <t>29523271</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Kifisia</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Kallithea</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Kifisia_X_Kallithea#ambas</t>
+          <t>FKCsiksze_X_CSComunal#2.5</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>28/11/2022 09:15</t>
+          <t>28/11/2022 14:00</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>2.18</v>
+        <v>2.02</v>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>/odds/kifisia-kallithea/29877443/</t>
+          <t>/odds/fk-csikszereda-miercurea-ciuc-cs-comunal-1559-selimbar/29523271/</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>29791878</t>
+          <t>29523271</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>AS Giana Erminio</t>
+          <t>FK Csikszereda Miercurea Ciuc</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Crema 1908</t>
+          <t>CS Comunal 1559 Selimbar</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ASGianaE_X_Crema1908#2.5</t>
+          <t>FKCsiksze_X_CSComunal#ambas</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>28/11/2022 09:30</t>
+          <t>28/11/2022 14:00</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>/odds/as-giana-erminio-crema-1908/29791878/</t>
+          <t>/odds/fk-csikszereda-miercurea-ciuc-cs-comunal-1559-selimbar/29523271/</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>29934931</t>
+          <t>29791864</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>KV Kortrijk Sub-21</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>Sint-Truidense VV Sub-21</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Punjab_X_AizawlFC#2.5</t>
+          <t>KVKortrij_X_SintTruid#2.5</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>28/11/2022 09:30</t>
+          <t>28/11/2022 14:30</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3275,299 +3275,299 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>/odds/punjab-aizawl-fc/29934931/</t>
+          <t>/odds/kv-kortrijk-sub-21-sint-truidense-vv-sub-21/29791864/</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>29934931</t>
+          <t>25861040</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Aizawl FC</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Punjab_X_AizawlFC#ambas</t>
+          <t>Portugal_X_Uruguai#2.5</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>28/11/2022 09:30</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>/odds/punjab-aizawl-fc/29934931/</t>
+          <t>/world-cup/odds/portugal-uruguai/25861040/</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>29987548</t>
+          <t>25861040</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sheffield United Sub-21</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Newcastle United Sub-21</t>
+          <t>Uruguai</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sheffield_X_Newcastle#2.5</t>
+          <t>Portugal_X_Uruguai#ambas</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>28/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>/odds/sheffield-united-sub-21-newcastle-united-sub-21/29987548/</t>
+          <t>/world-cup/odds/portugal-uruguai/25861040/</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>29987548</t>
+          <t>29987549</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sheffield United Sub-21</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Newcastle United Sub-21</t>
+          <t>Charlton Sub-21</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sheffield_X_Newcastle#ambas</t>
+          <t>Nottingham_X_CharltonS#2.5</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>28/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>/odds/sheffield-united-sub-21-newcastle-united-sub-21/29987548/</t>
+          <t>/odds/nottingham-forest-sub-21-charlton-sub-21/29987549/</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>29875714</t>
+          <t>29987549</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Nottingham Forest Sub-21</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>Charlton Sub-21</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>QarabagFK_X_ZiraFK#2.5</t>
+          <t>Nottingham_X_CharltonS#ambas</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>28/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1.33</v>
+        <v>1.47</v>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>/odds/qarabag-fk-zira-fk/29875714/</t>
+          <t>/odds/nottingham-forest-sub-21-charlton-sub-21/29987549/</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>29875714</t>
+          <t>29987550</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Qarabağ FK</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Zira FK</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>QarabagFK_X_ZiraFK#ambas</t>
+          <t>Sunderland_X_Wolverhamp#2.5</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>28/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1.98</v>
+        <v>1.44</v>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>/odds/qarabag-fk-zira-fk/29875714/</t>
+          <t>/odds/sunderland-afc-sub-21-wolverhampton-sub-21/29987550/</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>29987689</t>
+          <t>29987550</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>SL Benfica (F)</t>
+          <t>Sunderland AFC Sub-21</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>SC Braga (F)</t>
+          <t>Wolverhampton Sub-21</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>SLBenfica_X_SCBraga(#2.5</t>
+          <t>Sunderland_X_Wolverhamp#ambas</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>28/11/2022 11:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>/odds/sl-benfica-f-sc-braga-f/29987689/</t>
+          <t>/odds/sunderland-afc-sub-21-wolverhampton-sub-21/29987550/</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>29984463</t>
+          <t>29987552</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>ES Bafing</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Club Omnisports de Korhogo</t>
+          <t>Derby County Sub-21</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>ESBafing_X_ClubOmnis#2.5</t>
+          <t>QueensPar_X_DerbyCoun#2.5</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>28/11/2022 11:30</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -3576,170 +3576,170 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1.93</v>
+        <v>1.38</v>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>/odds/es-bafing-club-omnisports-de-korhogo/29984463/</t>
+          <t>/odds/queens-park-rangers-sub-21-derby-county-sub-21/29987552/</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>25861035</t>
+          <t>29987552</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Queens Park Rangers Sub-21</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Derby County Sub-21</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Brasil_X_Suica#2.5</t>
+          <t>QueensPar_X_DerbyCoun#ambas</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>28/11/2022 12:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H75" t="n">
-        <v>1.87</v>
+        <v>1.37</v>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>/world-cup/odds/brasil-suica/25861035/</t>
+          <t>/odds/queens-park-rangers-sub-21-derby-county-sub-21/29987552/</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>25861035</t>
+          <t>29987553</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Suíça</t>
+          <t>Stoke City II</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Brasil_X_Suica#ambas</t>
+          <t>BurnleySu_X_StokeCity#2.5</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>28/11/2022 12:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>/world-cup/odds/brasil-suica/25861035/</t>
+          <t>/odds/burnley-sub-21-stoke-city-ii/29987553/</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>29987601</t>
+          <t>29987553</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ethiopian Medhin</t>
+          <t>Burnley Sub-21</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Hawassa Kenema</t>
+          <t>Stoke City II</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Ethiopian_X_HawassaKe#2.5</t>
+          <t>BurnleySu_X_StokeCity#ambas</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>28/11/2022 12:00</t>
+          <t>28/11/2022 15:00</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>/odds/ethiopian-medhin-hawassa-kenema/29987601/</t>
+          <t>/odds/burnley-sub-21-stoke-city-ii/29987553/</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>29446105</t>
+          <t>29820577</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>UE Santa Coloma II</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Nea Salamina Famagusta</t>
+          <t>UE Engordany II</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Olympiakos_X_NeaSalami#2.5</t>
+          <t>UESantaC_X_UEEngorda#2.5</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>28/11/2022 13:00</t>
+          <t>28/11/2022 15:30</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3748,170 +3748,170 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>2.18</v>
+        <v>1.55</v>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>/odds/olympiakos-nicosia-nea-salamina-famagusta/29446105/</t>
+          <t>/odds/ue-santa-coloma-ii-ue-engordany-ii/29820577/</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>29446105</t>
+          <t>29713616</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Olympiakos Nicosia</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Nea Salamina Famagusta</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Olympiakos_X_NeaSalami#ambas</t>
+          <t>UnionArzi_X_LRVicenza#2.5</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>28/11/2022 13:00</t>
+          <t>28/11/2022 15:30</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>/odds/olympiakos-nicosia-nea-salamina-famagusta/29446105/</t>
+          <t>/odds/union-arzignanochiampo-lr-vicenza/29713616/</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>29796896</t>
+          <t>29713616</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>Union Arzignanochiampo</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>LR Vicenza</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>ArisLimas_X_PafosFC#2.5</t>
+          <t>UnionArzi_X_LRVicenza#ambas</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>28/11/2022 13:00</t>
+          <t>28/11/2022 15:30</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>2.18</v>
+        <v>1.88</v>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>/odds/aris-limassol-pafos-fc/29796896/</t>
+          <t>/odds/union-arzignanochiampo-lr-vicenza/29713616/</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>147</v>
+        <v>166</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>29796896</t>
+          <t>30016642</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Aris Limassol</t>
+          <t>FC Inter Nouakchott</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Pafos FC</t>
+          <t>AS Douanes</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>ArisLimas_X_PafosFC#ambas</t>
+          <t>FCInterN_X_ASDouanes#2.5</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>28/11/2022 13:00</t>
+          <t>28/11/2022 15:40</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1.9</v>
+        <v>2.12</v>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>/odds/aris-limassol-pafos-fc/29796896/</t>
+          <t>/odds/fc-inter-nouakchott-as-douanes/30016642/</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>30016641</t>
+          <t>29875089</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Concorde</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Chemal FC</t>
+          <t>Billericay Town</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Concorde_X_ChemalFC#2.5</t>
+          <t>Carshalton_X_Billericay#2.5</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>28/11/2022 13:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3920,256 +3920,256 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>/odds/concorde-chemal-fc/30016641/</t>
+          <t>/odds/carshalton-athletic-billericay-town/29875089/</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>27945206</t>
+          <t>29875089</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Carshalton Athletic</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Billericay Town</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Altinordu_X_ManisaFK#2.5</t>
+          <t>Carshalton_X_Billericay#ambas</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>28/11/2022 13:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>/odds/altinordu-manisa-fk/27945206/</t>
+          <t>/odds/carshalton-athletic-billericay-town/29875089/</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>27945206</t>
+          <t>29875736</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Redditch United</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Altinordu_X_ManisaFK#ambas</t>
+          <t>HitchinTo_X_RedditchU#2.5</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>28/11/2022 13:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>/odds/altinordu-manisa-fk/27945206/</t>
+          <t>/odds/hitchin-town-redditch-united/29875736/</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>29523271</t>
+          <t>29875736</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Hitchin Town</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>CS Comunal 1559 Selimbar</t>
+          <t>Redditch United</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FKCsiksze_X_CSComunal#2.5</t>
+          <t>HitchinTo_X_RedditchU#ambas</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>28/11/2022 14:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>/odds/fk-csikszereda-miercurea-ciuc-cs-comunal-1559-selimbar/29523271/</t>
+          <t>/odds/hitchin-town-redditch-united/29875736/</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>29523271</t>
+          <t>30020167</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>FK Csikszereda Miercurea Ciuc</t>
+          <t>Kings Langley</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>CS Comunal 1559 Selimbar</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>FKCsiksze_X_CSComunal#ambas</t>
+          <t>KingsLang_X_NuneatonB#2.5</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>28/11/2022 14:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>/odds/fk-csikszereda-miercurea-ciuc-cs-comunal-1559-selimbar/29523271/</t>
+          <t>/odds/kings-langley-nuneaton-borough-fc/30020167/</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>29791864</t>
+          <t>30020167</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>KV Kortrijk Sub-21</t>
+          <t>Kings Langley</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sint-Truidense VV Sub-21</t>
+          <t>Nuneaton Borough FC</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>KVKortrij_X_SintTruid#2.5</t>
+          <t>KingsLang_X_NuneatonB#ambas</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>28/11/2022 14:30</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>/odds/kv-kortrijk-sub-21-sint-truidense-vv-sub-21/29791864/</t>
+          <t>/odds/kings-langley-nuneaton-borough-fc/30020167/</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>25861040</t>
+          <t>30020135</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Binfield</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Sutton Common Rovers</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Portugal_X_Uruguai#2.5</t>
+          <t>Binfield_X_SuttonCom#2.5</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>28/11/2022 15:00</t>
+          <t>28/11/2022 15:45</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -4178,1043 +4178,269 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>2.25</v>
+        <v>1.55</v>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>/world-cup/odds/portugal-uruguai/25861040/</t>
+          <t>/odds/binfield-sutton-common-rovers/30020135/</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>25861040</t>
+          <t>29875739</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Uruguai</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Portugal_X_Uruguai#ambas</t>
+          <t>LBChateau_X_LeMansUC#2.5</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>28/11/2022 15:00</t>
+          <t>28/11/2022 16:00</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>/world-cup/odds/portugal-uruguai/25861040/</t>
+          <t>/odds/lb-chateauroux-le-mans-uc-72/29875739/</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>29987549</t>
+          <t>29875739</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Nottingham Forest Sub-21</t>
+          <t>LB Chateauroux</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Charlton Sub-21</t>
+          <t>Le Mans UC 72</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Nottingham_X_CharltonS#2.5</t>
+          <t>LBChateau_X_LeMansUC#ambas</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>28/11/2022 15:00</t>
+          <t>28/11/2022 16:00</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>/odds/nottingham-forest-sub-21-charlton-sub-21/29987549/</t>
+          <t>/odds/lb-chateauroux-le-mans-uc-72/29875739/</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>29987549</t>
+          <t>27945249</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Nottingham Forest Sub-21</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Charlton Sub-21</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Nottingham_X_CharltonS#ambas</t>
+          <t>UDIbiza_X_FCAndorra#2.5</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>28/11/2022 15:00</t>
+          <t>28/11/2022 16:00</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1.47</v>
+        <v>2.4</v>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>/odds/nottingham-forest-sub-21-charlton-sub-21/29987549/</t>
+          <t>/odds/ud-ibiza-fc-andorra/27945249/</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>29987550</t>
+          <t>27945249</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Sunderland AFC Sub-21</t>
+          <t>UD Ibiza</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Wolverhampton Sub-21</t>
+          <t>FC Andorra</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Sunderland_X_Wolverhamp#2.5</t>
+          <t>UDIbiza_X_FCAndorra#ambas</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>28/11/2022 15:00</t>
+          <t>28/11/2022 16:00</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1.44</v>
+        <v>1.98</v>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>/odds/sunderland-afc-sub-21-wolverhampton-sub-21/29987550/</t>
+          <t>/odds/ud-ibiza-fc-andorra/27945249/</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>29987550</t>
+          <t>30019488</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sunderland AFC Sub-21</t>
+          <t>CS Rivadavia de Venado Tuerto</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Wolverhampton Sub-21</t>
+          <t>Atletico Carcarana</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sunderland_X_Wolverhamp#ambas</t>
+          <t>CSRivadav_X_AtleticoC#2.5</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>28/11/2022 15:00</t>
+          <t>28/11/2022 20:00</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Ambas Marcam Sim</t>
+          <t>Gols+2.5</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1.47</v>
+        <v>2.07</v>
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>/odds/sunderland-afc-sub-21-wolverhampton-sub-21/29987550/</t>
+          <t>/odds/cs-rivadavia-de-venado-tuerto-atletico-carcarana/30019488/</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>29987552</t>
+          <t>30019488</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Queens Park Rangers Sub-21</t>
+          <t>CS Rivadavia de Venado Tuerto</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Derby County Sub-21</t>
+          <t>Atletico Carcarana</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>QueensPar_X_DerbyCoun#2.5</t>
+          <t>CSRivadav_X_AtleticoC#ambas</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>28/11/2022 15:00</t>
+          <t>28/11/2022 20:00</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Gols+2.5</t>
+          <t>Ambas Marcam Sim</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1.37</v>
+        <v>1.75</v>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>/odds/queens-park-rangers-sub-21-derby-county-sub-21/29987552/</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>29987552</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Queens Park Rangers Sub-21</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Derby County Sub-21</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>QueensPar_X_DerbyCoun#ambas</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H95" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>/odds/queens-park-rangers-sub-21-derby-county-sub-21/29987552/</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>29987553</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Burnley Sub-21</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>Stoke City II</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>BurnleySu_X_StokeCity#2.5</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H96" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>/odds/burnley-sub-21-stoke-city-ii/29987553/</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>29987553</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Burnley Sub-21</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>Stoke City II</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>BurnleySu_X_StokeCity#ambas</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:00</t>
-        </is>
-      </c>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H97" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>/odds/burnley-sub-21-stoke-city-ii/29987553/</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>29820577</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>UE Santa Coloma II</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>UE Engordany II</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>UESantaC_X_UEEngorda#2.5</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:30</t>
-        </is>
-      </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H98" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>/odds/ue-santa-coloma-ii-ue-engordany-ii/29820577/</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>29713616</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Union Arzignanochiampo</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>LR Vicenza</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>UnionArzi_X_LRVicenza#2.5</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:30</t>
-        </is>
-      </c>
-      <c r="G99" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H99" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I99" t="inlineStr">
-        <is>
-          <t>/odds/union-arzignanochiampo-lr-vicenza/29713616/</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>29713616</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Union Arzignanochiampo</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>LR Vicenza</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>UnionArzi_X_LRVicenza#ambas</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:30</t>
-        </is>
-      </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H100" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I100" t="inlineStr">
-        <is>
-          <t>/odds/union-arzignanochiampo-lr-vicenza/29713616/</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>30016642</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>FC Inter Nouakchott</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>AS Douanes</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>FCInterN_X_ASDouanes#2.5</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:40</t>
-        </is>
-      </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H101" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I101" t="inlineStr">
-        <is>
-          <t>/odds/fc-inter-nouakchott-as-douanes/30016642/</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>29875089</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Carshalton Athletic</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>Billericay Town</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Carshalton_X_Billericay#2.5</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H102" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="I102" t="inlineStr">
-        <is>
-          <t>/odds/carshalton-athletic-billericay-town/29875089/</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>29875089</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>Carshalton Athletic</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>Billericay Town</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Carshalton_X_Billericay#ambas</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G103" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H103" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="I103" t="inlineStr">
-        <is>
-          <t>/odds/carshalton-athletic-billericay-town/29875089/</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>29875736</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Hitchin Town</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>Redditch United</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>HitchinTo_X_RedditchU#2.5</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H104" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="I104" t="inlineStr">
-        <is>
-          <t>/odds/hitchin-town-redditch-united/29875736/</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>29875736</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Hitchin Town</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>Redditch United</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>HitchinTo_X_RedditchU#ambas</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>/odds/hitchin-town-redditch-united/29875736/</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>30020167</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Kings Langley</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>Nuneaton Borough FC</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>KingsLang_X_NuneatonB#2.5</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G106" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H106" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="I106" t="inlineStr">
-        <is>
-          <t>/odds/kings-langley-nuneaton-borough-fc/30020167/</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>30020167</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Kings Langley</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>Nuneaton Borough FC</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>KingsLang_X_NuneatonB#ambas</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I107" t="inlineStr">
-        <is>
-          <t>/odds/kings-langley-nuneaton-borough-fc/30020167/</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>30020135</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Binfield</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>Sutton Common Rovers</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Binfield_X_SuttonCom#2.5</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>28/11/2022 15:45</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H108" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>/odds/binfield-sutton-common-rovers/30020135/</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>232</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>29875739</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>LB Chateauroux</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>Le Mans UC 72</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>LBChateau_X_LeMansUC#2.5</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>28/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G109" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H109" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>/odds/lb-chateauroux-le-mans-uc-72/29875739/</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>234</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>29875739</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>LB Chateauroux</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Le Mans UC 72</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>LBChateau_X_LeMansUC#ambas</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>28/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H110" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>/odds/lb-chateauroux-le-mans-uc-72/29875739/</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>237</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>27945249</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>UD Ibiza</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>FC Andorra</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>UDIbiza_X_FCAndorra#2.5</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>28/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>Gols+2.5</t>
-        </is>
-      </c>
-      <c r="H111" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="I111" t="inlineStr">
-        <is>
-          <t>/odds/ud-ibiza-fc-andorra/27945249/</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>239</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>27945249</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>UD Ibiza</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>FC Andorra</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>UDIbiza_X_FCAndorra#ambas</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>28/11/2022 16:00</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Ambas Marcam Sim</t>
-        </is>
-      </c>
-      <c r="H112" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="I112" t="inlineStr">
-        <is>
-          <t>/odds/ud-ibiza-fc-andorra/27945249/</t>
+          <t>/odds/cs-rivadavia-de-venado-tuerto-atletico-carcarana/30019488/</t>
         </is>
       </c>
     </row>

--- a/cotacoes_betano.xlsx
+++ b/cotacoes_betano.xlsx
@@ -639,7 +639,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -682,7 +682,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.88</v>
+        <v>2.22</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -2329,7 +2329,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="I45" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="I86" t="inlineStr">
         <is>

--- a/cotacoes_betano.xlsx
+++ b/cotacoes_betano.xlsx
@@ -1026,7 +1026,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="I46" t="inlineStr">
         <is>
